--- a/OB_Table_variable_overview_math_SUHAS.xlsx
+++ b/OB_Table_variable_overview_math_SUHAS.xlsx
@@ -13,16 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="Categories_for_latex (3)" sheetId="5" r:id="rId1"/>
-    <sheet name="Categories_for_latex (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Categories_for_latex" sheetId="3" r:id="rId3"/>
-    <sheet name="Categories" sheetId="2" r:id="rId4"/>
-    <sheet name="List" sheetId="1" r:id="rId5"/>
+    <sheet name="Indonesia Jordan" sheetId="6" r:id="rId2"/>
+    <sheet name="Categories_for_latex (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Categories_for_latex" sheetId="3" r:id="rId4"/>
+    <sheet name="Categories" sheetId="2" r:id="rId5"/>
+    <sheet name="List" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Categories!$B$3:$S$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Categories_for_latex!$A$3:$T$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Categories_for_latex (2)'!$A$3:$T$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Categories!$B$3:$S$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Categories_for_latex!$A$3:$T$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Categories_for_latex (2)'!$A$3:$T$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Categories_for_latex (3)'!$A$3:$T$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Indonesia Jordan'!$A$3:$H$55</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="72">
   <si>
     <t>Wealth</t>
   </si>
@@ -1157,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4902,11 +4904,1760 @@
     <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="64" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M67"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="9" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="105"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="61"/>
+      <c r="C6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109">
+        <v>197.30240000000001</v>
+      </c>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109">
+        <v>220.3262</v>
+      </c>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109">
+        <v>88.554699999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10">
+        <v>-1.3536999999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-17.271000000000001</v>
+      </c>
+      <c r="F7" s="10">
+        <v>6.1003999999999996</v>
+      </c>
+      <c r="G7" s="10">
+        <v>8.8937000000000008</v>
+      </c>
+      <c r="H7" s="10">
+        <v>-0.84889999999999999</v>
+      </c>
+      <c r="I7" s="10">
+        <v>-3.5329000000000002</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2.4102999999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-6.5244999999999997</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5.1805000000000003</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-13.6441</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.3962</v>
+      </c>
+      <c r="I8" s="10">
+        <v>9.7698999999999998</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-0.85450000000000004</v>
+      </c>
+      <c r="E9" s="10">
+        <v>18.0457</v>
+      </c>
+      <c r="F9" s="10">
+        <v>11.788500000000001</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-24.2972</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1.6305000000000001</v>
+      </c>
+      <c r="I9" s="10">
+        <v>-17.898</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-4.6096000000000004</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-1.3158000000000001</v>
+      </c>
+      <c r="F10" s="10">
+        <v>6.8209999999999997</v>
+      </c>
+      <c r="G10" s="10">
+        <v>12.3146</v>
+      </c>
+      <c r="H10" s="10">
+        <v>-1.772</v>
+      </c>
+      <c r="I10" s="10">
+        <v>-12.5189</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>6.7927999999999997</v>
+      </c>
+      <c r="E11" s="10">
+        <v>12.321199999999999</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1.5262</v>
+      </c>
+      <c r="G11" s="10">
+        <v>12.497299999999999</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.2760999999999996</v>
+      </c>
+      <c r="I11" s="10">
+        <v>12.9491</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-1.4518</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.2812000000000001</v>
+      </c>
+      <c r="F12" s="10">
+        <v>6.05</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-2.0318999999999998</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4.4974999999999996</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1.3579000000000001</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-0.38800000000000001</v>
+      </c>
+      <c r="E13" s="10">
+        <v>-2.3087</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-4.5979000000000001</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-4.6768999999999998</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.72802</v>
+      </c>
+      <c r="I13" s="10">
+        <v>9.9718999999999998</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3.4577</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2.2711000000000001</v>
+      </c>
+      <c r="I14" s="10">
+        <v>-1.1408</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-0.47270000000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <v>31.4282</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1.103</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-1.8785000000000001</v>
+      </c>
+      <c r="H15" s="10">
+        <v>-0.66930000000000001</v>
+      </c>
+      <c r="I15" s="10">
+        <v>-51.1404</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.59970000000000001</v>
+      </c>
+      <c r="F16" s="10">
+        <v>-2.9600000000000001E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-5.3118999999999996</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="I16" s="10">
+        <v>-0.82220000000000004</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-0.30420000000000003</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.7972999999999999</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.7685999999999999</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-0.86129999999999995</v>
+      </c>
+      <c r="H17" s="10">
+        <v>-0.30009999999999998</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-0.12839999999999999</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10">
+        <v>-6.9776999999999996</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-9.7581000000000007</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-16.981000000000002</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1.0350999999999999</v>
+      </c>
+      <c r="I18" s="10">
+        <v>-24.555099999999999</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10">
+        <v>-4.1399999999999999E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>35.159100000000002</v>
+      </c>
+      <c r="F19" s="10">
+        <v>-0.87470000000000003</v>
+      </c>
+      <c r="G19" s="10">
+        <v>8.2309000000000001</v>
+      </c>
+      <c r="H19" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I19" s="10">
+        <v>65.847700000000003</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3.2715000000000001</v>
+      </c>
+      <c r="F20" s="10">
+        <v>-1.3139000000000001</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="H20" s="10">
+        <v>-0.64980000000000004</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1.8805000000000001</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="10">
+        <v>-8.0399999999999999E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-3.4670999999999998</v>
+      </c>
+      <c r="F21" s="10">
+        <v>-1.645</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-0.1837</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="I21" s="10">
+        <v>-16.271799999999999</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-0.63270000000000004</v>
+      </c>
+      <c r="E22" s="10">
+        <v>-15.960699999999999</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-1.3721000000000001</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-0.81389999999999996</v>
+      </c>
+      <c r="H22" s="10">
+        <v>-0.45600000000000002</v>
+      </c>
+      <c r="I22" s="10">
+        <v>-38.098599999999998</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="E23" s="10">
+        <v>-0.31680000000000003</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1.4125000000000001</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-13.0502</v>
+      </c>
+      <c r="H23" s="10">
+        <v>-0.65780000000000005</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="10">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="E24" s="10">
+        <v>-31.421299999999999</v>
+      </c>
+      <c r="F24" s="10">
+        <v>-3.8008999999999999</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-17.7227</v>
+      </c>
+      <c r="H24" s="10">
+        <v>-8.1668000000000003</v>
+      </c>
+      <c r="I24" s="10">
+        <v>-15.187200000000001</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.1084</v>
+      </c>
+      <c r="E25" s="10">
+        <v>-1.5941000000000001</v>
+      </c>
+      <c r="F25" s="10">
+        <v>7.2211999999999996</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-0.7671</v>
+      </c>
+      <c r="H25" s="10">
+        <v>7.9348000000000001</v>
+      </c>
+      <c r="I25" s="10">
+        <v>-0.23960000000000001</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="112">
+        <f>SUM(D7:D25)</f>
+        <v>-4.5873000000000017</v>
+      </c>
+      <c r="E26" s="112">
+        <f>SUM(E7:E25)</f>
+        <v>18.093900000000005</v>
+      </c>
+      <c r="F26" s="112">
+        <f t="shared" ref="F26" si="0">SUM(F7:F25)</f>
+        <v>39.302700000000002</v>
+      </c>
+      <c r="G26" s="112">
+        <f>SUM(G7:G25)</f>
+        <v>-58.620900000000006</v>
+      </c>
+      <c r="H26" s="112">
+        <f>SUM(H7:H25)</f>
+        <v>10.68432</v>
+      </c>
+      <c r="I26" s="128">
+        <f>SUM(I7:I25)</f>
+        <v>-79.557899999999989</v>
+      </c>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="114">
+        <f>D26/$E$53</f>
+        <v>-6.2600301313333134E-2</v>
+      </c>
+      <c r="E27" s="114">
+        <f>E26/$E$53</f>
+        <v>0.24691726983919043</v>
+      </c>
+      <c r="F27" s="114">
+        <f>F26/$G$53</f>
+        <v>0.34919719925769149</v>
+      </c>
+      <c r="G27" s="114">
+        <f>G26/$G$53</f>
+        <v>-0.52083582293239927</v>
+      </c>
+      <c r="H27" s="114">
+        <f>H26/I53</f>
+        <v>-0.12394930759725942</v>
+      </c>
+      <c r="I27" s="114">
+        <f>I26/I53</f>
+        <v>0.92295500498787053</v>
+      </c>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="115">
+        <v>2.6597</v>
+      </c>
+      <c r="E28" s="115">
+        <v>-0.62239999999999995</v>
+      </c>
+      <c r="F28" s="115">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="G28" s="115">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="H28" s="115">
+        <v>1.5828</v>
+      </c>
+      <c r="I28" s="115">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="115">
+        <v>1.1331</v>
+      </c>
+      <c r="E29" s="115">
+        <v>-0.24399999999999999</v>
+      </c>
+      <c r="F29" s="115">
+        <v>3.0066000000000002</v>
+      </c>
+      <c r="G29" s="115">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="H29" s="115">
+        <v>1.0185999999999999</v>
+      </c>
+      <c r="I29" s="115">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="115">
+        <v>-10.6968</v>
+      </c>
+      <c r="E30" s="115">
+        <v>-28.5366</v>
+      </c>
+      <c r="F30" s="115">
+        <v>23.194099999999999</v>
+      </c>
+      <c r="G30" s="115">
+        <v>-63.077399999999997</v>
+      </c>
+      <c r="H30" s="115">
+        <v>1.2012</v>
+      </c>
+      <c r="I30" s="115">
+        <v>-2.4455</v>
+      </c>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="115">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="E31" s="115">
+        <v>-18.447500000000002</v>
+      </c>
+      <c r="F31" s="115">
+        <v>-3.8340000000000001</v>
+      </c>
+      <c r="G31" s="115">
+        <v>24.301100000000002</v>
+      </c>
+      <c r="H31" s="115">
+        <v>-3.1122000000000001</v>
+      </c>
+      <c r="I31" s="115">
+        <v>-8.4981000000000009</v>
+      </c>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="115">
+        <v>-3.7307999999999999</v>
+      </c>
+      <c r="E32" s="115">
+        <v>3.9064999999999999</v>
+      </c>
+      <c r="F32" s="115">
+        <v>-4.5879000000000003</v>
+      </c>
+      <c r="G32" s="115">
+        <v>-17.802</v>
+      </c>
+      <c r="H32" s="115">
+        <v>-8.0828000000000007</v>
+      </c>
+      <c r="I32" s="115">
+        <v>-1.1654</v>
+      </c>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="115">
+        <v>-1.5344</v>
+      </c>
+      <c r="E33" s="115">
+        <v>-3.2852000000000001</v>
+      </c>
+      <c r="F33" s="115">
+        <v>-0.84379999999999999</v>
+      </c>
+      <c r="G33" s="115">
+        <v>9.0344999999999995</v>
+      </c>
+      <c r="H33" s="115">
+        <v>-3.3967000000000001</v>
+      </c>
+      <c r="I33" s="115">
+        <v>3.5560999999999998</v>
+      </c>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="115">
+        <v>1.9975000000000001</v>
+      </c>
+      <c r="E34" s="115">
+        <v>4.6253000000000002</v>
+      </c>
+      <c r="F34" s="115">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="G34" s="115">
+        <v>5.3532000000000002</v>
+      </c>
+      <c r="H34" s="115">
+        <v>2.4335</v>
+      </c>
+      <c r="I34" s="115">
+        <v>-2.6004</v>
+      </c>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="115">
+        <v>0.2273</v>
+      </c>
+      <c r="E35" s="115">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="F35" s="115">
+        <v>-0.50560000000000005</v>
+      </c>
+      <c r="G35" s="115">
+        <v>0.28239999999999998</v>
+      </c>
+      <c r="H35" s="115">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="I35" s="115">
+        <v>-2.4857</v>
+      </c>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="115">
+        <v>-6.2788000000000004</v>
+      </c>
+      <c r="E36" s="115">
+        <v>-2.0394000000000001</v>
+      </c>
+      <c r="F36" s="115">
+        <v>-2.8570000000000002</v>
+      </c>
+      <c r="G36" s="115">
+        <v>-5.5975999999999999</v>
+      </c>
+      <c r="H36" s="115">
+        <v>-9.2127999999999997</v>
+      </c>
+      <c r="I36" s="115">
+        <v>-0.1094</v>
+      </c>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="115">
+        <v>-0.3221</v>
+      </c>
+      <c r="E37" s="115">
+        <v>-4.9515000000000002</v>
+      </c>
+      <c r="F37" s="115">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="G37" s="115">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="H37" s="115">
+        <v>-0.77049999999999996</v>
+      </c>
+      <c r="I37" s="115">
+        <v>-8.6599000000000004</v>
+      </c>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="115">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="E38" s="115">
+        <v>-10.973699999999999</v>
+      </c>
+      <c r="F38" s="115">
+        <v>3.2614000000000001</v>
+      </c>
+      <c r="G38" s="115">
+        <v>-33.462699999999998</v>
+      </c>
+      <c r="H38" s="115">
+        <v>2.5554999999999999</v>
+      </c>
+      <c r="I38" s="115">
+        <v>-0.76200000000000001</v>
+      </c>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="115">
+        <v>-3.6669999999999998</v>
+      </c>
+      <c r="E39" s="115">
+        <v>-20.323899999999998</v>
+      </c>
+      <c r="F39" s="115">
+        <v>-8.5485000000000007</v>
+      </c>
+      <c r="G39" s="115">
+        <v>10.7592</v>
+      </c>
+      <c r="H39" s="115">
+        <v>-2.2002999999999999</v>
+      </c>
+      <c r="I39" s="115">
+        <v>-21.9057</v>
+      </c>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="115">
+        <v>4.7077999999999998</v>
+      </c>
+      <c r="E40" s="115">
+        <v>-9.8512000000000004</v>
+      </c>
+      <c r="F40" s="115">
+        <v>-2.34511</v>
+      </c>
+      <c r="G40" s="115">
+        <v>1.3381000000000001</v>
+      </c>
+      <c r="H40" s="115">
+        <v>1.2575000000000001</v>
+      </c>
+      <c r="I40" s="115">
+        <v>-2.1</v>
+      </c>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="115">
+        <v>-4.4467999999999996</v>
+      </c>
+      <c r="E41" s="115">
+        <v>1.0381</v>
+      </c>
+      <c r="F41" s="115">
+        <v>3.9636</v>
+      </c>
+      <c r="G41" s="115">
+        <v>1.4813000000000001</v>
+      </c>
+      <c r="H41" s="115">
+        <v>-3.4883999999999999</v>
+      </c>
+      <c r="I41" s="115">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="115">
+        <v>27.683599999999998</v>
+      </c>
+      <c r="E42" s="115">
+        <v>-19.989100000000001</v>
+      </c>
+      <c r="F42" s="115">
+        <v>3.4112</v>
+      </c>
+      <c r="G42" s="115">
+        <v>7.9172000000000002</v>
+      </c>
+      <c r="H42" s="115">
+        <v>8.2979000000000003</v>
+      </c>
+      <c r="I42" s="115">
+        <v>4.5457999999999998</v>
+      </c>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="115">
+        <v>3.5728</v>
+      </c>
+      <c r="E43" s="115">
+        <v>-3.3755999999999999</v>
+      </c>
+      <c r="F43" s="115">
+        <v>6.7826000000000004</v>
+      </c>
+      <c r="G43" s="115">
+        <v>6.9161999999999999</v>
+      </c>
+      <c r="H43" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="115">
+        <v>-9.3596000000000004</v>
+      </c>
+      <c r="E44" s="115">
+        <v>-2.0706000000000002</v>
+      </c>
+      <c r="F44" s="115">
+        <v>-11.82</v>
+      </c>
+      <c r="G44" s="115">
+        <v>0.9214</v>
+      </c>
+      <c r="H44" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="115">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="E45" s="115">
+        <v>1.3994</v>
+      </c>
+      <c r="F45" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="125">
+        <v>0.19617000000000001</v>
+      </c>
+      <c r="I45" s="125">
+        <v>-5.3329000000000004</v>
+      </c>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="115">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="E46" s="115">
+        <v>-8.9641000000000002</v>
+      </c>
+      <c r="F46" s="115">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="G46" s="115">
+        <v>-19.7408</v>
+      </c>
+      <c r="H46" s="123">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="I46" s="123">
+        <v>-3.3761000000000001</v>
+      </c>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="115">
+        <v>7.5765000000000002</v>
+      </c>
+      <c r="E47" s="115">
+        <v>-21.464400000000001</v>
+      </c>
+      <c r="F47" s="115">
+        <v>1.8274999999999999</v>
+      </c>
+      <c r="G47" s="115">
+        <v>-7.3367000000000004</v>
+      </c>
+      <c r="H47" s="123">
+        <v>7.9599000000000002</v>
+      </c>
+      <c r="I47" s="123">
+        <v>-8.3436000000000003</v>
+      </c>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="115">
+        <v>-21.848400000000002</v>
+      </c>
+      <c r="E48" s="115">
+        <v>10.7935</v>
+      </c>
+      <c r="F48" s="115">
+        <v>-2.7900999999999998</v>
+      </c>
+      <c r="G48" s="115">
+        <v>-17.253799999999998</v>
+      </c>
+      <c r="H48" s="123">
+        <v>-11.366400000000001</v>
+      </c>
+      <c r="I48" s="123">
+        <v>-1.2101999999999999</v>
+      </c>
+      <c r="J48" s="115"/>
+      <c r="K48" s="115"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="115">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="E49" s="115">
+        <v>3.9018000000000002</v>
+      </c>
+      <c r="F49" s="115">
+        <v>0.154</v>
+      </c>
+      <c r="G49" s="115">
+        <v>-3.1366999999999998</v>
+      </c>
+      <c r="H49" s="123">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="I49" s="123">
+        <v>-32.196300000000001</v>
+      </c>
+      <c r="J49" s="115"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="112">
+        <f t="shared" ref="D50:E50" si="1">SUM(D28:D49)</f>
+        <v>-8.0073000000000008</v>
+      </c>
+      <c r="E50" s="112">
+        <f t="shared" si="1"/>
+        <v>-129.52250000000001</v>
+      </c>
+      <c r="F50" s="112">
+        <f>SUM(F28:F49)</f>
+        <v>8.1311900000000001</v>
+      </c>
+      <c r="G50" s="112">
+        <f>SUM(G28:G49)</f>
+        <v>-96.587599999999981</v>
+      </c>
+      <c r="H50" s="112">
+        <f>SUM(H28:H49)</f>
+        <v>-13.246429999999997</v>
+      </c>
+      <c r="I50" s="112">
+        <f>SUM(I28:I49)</f>
+        <v>-92.633800000000008</v>
+      </c>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="114">
+        <f>D50/$E$53</f>
+        <v>-0.10927111649690499</v>
+      </c>
+      <c r="E51" s="114">
+        <f>E50/$E$53</f>
+        <v>-1.7675206607059029</v>
+      </c>
+      <c r="F51" s="114">
+        <f>F50/$G$53</f>
+        <v>7.2244114898776635E-2</v>
+      </c>
+      <c r="G51" s="114">
+        <f>G50/$G$53</f>
+        <v>-0.85816291000420308</v>
+      </c>
+      <c r="H51" s="114">
+        <f>H50/I53</f>
+        <v>0.1536724683120278</v>
+      </c>
+      <c r="I51" s="114">
+        <f>I50/I53</f>
+        <v>1.0746491466095185</v>
+      </c>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="112">
+        <f t="shared" ref="D52" si="2">D26+D50</f>
+        <v>-12.594600000000003</v>
+      </c>
+      <c r="E52" s="112">
+        <f>E26+E50</f>
+        <v>-111.4286</v>
+      </c>
+      <c r="F52" s="112">
+        <f>F26+F50</f>
+        <v>47.433890000000005</v>
+      </c>
+      <c r="G52" s="112">
+        <f>G26+G50</f>
+        <v>-155.20849999999999</v>
+      </c>
+      <c r="H52" s="112">
+        <f>H26+H50</f>
+        <v>-2.562109999999997</v>
+      </c>
+      <c r="I52" s="128">
+        <f>I26+I50</f>
+        <v>-172.1917</v>
+      </c>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="127">
+        <f>D52+E52+E6</f>
+        <v>73.279200000000003</v>
+      </c>
+      <c r="F53" s="126"/>
+      <c r="G53" s="127">
+        <f>F52+G52+G6</f>
+        <v>112.55159000000002</v>
+      </c>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127">
+        <f>H52+I52+I6</f>
+        <v>-86.19910999999999</v>
+      </c>
+      <c r="J53" s="115"/>
+      <c r="K53" s="115"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="115"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="115"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8173,7 +9924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11441,7 +13192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14244,7 +15995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E34"/>
   <sheetViews>

--- a/OB_Table_variable_overview_math_SUHAS.xlsx
+++ b/OB_Table_variable_overview_math_SUHAS.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Categories_for_latex" sheetId="3" r:id="rId4"/>
     <sheet name="Categories" sheetId="2" r:id="rId5"/>
     <sheet name="List" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Categories!$B$3:$S$54</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="74">
   <si>
     <t>Wealth</t>
   </si>
@@ -255,6 +256,12 @@
   </si>
   <si>
     <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Vietnam as reference</t>
+  </si>
+  <si>
+    <t>Shanghai as reference</t>
   </si>
 </sst>
 </file>
@@ -611,7 +618,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -773,40 +780,7 @@
     <xf numFmtId="9" fontId="8" fillId="9" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,6 +831,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1157,10 +1170,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,10 +1181,10 @@
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="21" width="15.5703125" customWidth="1"/>
+    <col min="4" max="23" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1196,9 +1209,8 @@
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1218,14 +1230,17 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="T2" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="130"/>
       <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1250,159 +1265,166 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-    </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105" t="s">
+      <c r="E4" s="118"/>
+      <c r="F4" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="106"/>
-      <c r="H4" s="105" t="s">
+      <c r="G4" s="119"/>
+      <c r="H4" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="I4" s="118"/>
+      <c r="J4" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105" t="s">
+      <c r="K4" s="118"/>
+      <c r="L4" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105" t="s">
+      <c r="M4" s="118"/>
+      <c r="N4" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105" t="s">
+      <c r="O4" s="118"/>
+      <c r="P4" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105" t="s">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105" t="s">
+      <c r="S4" s="118"/>
+      <c r="T4" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="105"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="95"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="107" t="s">
+      <c r="K5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="107" t="s">
+      <c r="M5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="107" t="s">
+      <c r="N5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="107" t="s">
+      <c r="O5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="107" t="s">
+      <c r="P5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="107" t="s">
+      <c r="Q5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="107" t="s">
+      <c r="R5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="107" t="s">
+      <c r="S5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="107" t="s">
+      <c r="T5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="107" t="s">
+      <c r="U5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+      <c r="V5" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="96" t="s">
+        <v>38</v>
+      </c>
       <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-    </row>
-    <row r="6" spans="1:25" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
       <c r="C6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109">
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98">
         <v>100.7672</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109">
+      <c r="H6" s="97"/>
+      <c r="I6" s="98">
         <v>222.60169999999999</v>
       </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109">
+      <c r="J6" s="98"/>
+      <c r="K6" s="98">
         <v>181.3475</v>
       </c>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109">
+      <c r="L6" s="98"/>
+      <c r="M6" s="98">
         <v>232.8262</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109">
+      <c r="N6" s="98"/>
+      <c r="O6" s="98">
         <v>247.83940000000001</v>
       </c>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109">
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98">
         <v>197.30240000000001</v>
       </c>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109">
+      <c r="R6" s="98"/>
+      <c r="S6" s="98">
         <v>220.3262</v>
       </c>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109">
+      <c r="T6" s="98"/>
+      <c r="U6" s="98">
         <v>88.554699999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V6" s="98"/>
+      <c r="W6" s="98">
+        <v>-88.554699999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>2</v>
@@ -1410,10 +1432,10 @@
       <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="106">
         <v>0.78879999999999995</v>
       </c>
-      <c r="E7" s="117">
+      <c r="E7" s="106">
         <v>0.91200000000000003</v>
       </c>
       <c r="F7" s="10">
@@ -1464,21 +1486,24 @@
       <c r="U7" s="10">
         <v>-3.5329000000000002</v>
       </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
+      <c r="V7" s="10">
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="W7" s="10">
+        <v>3.3683000000000001</v>
+      </c>
       <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="106">
         <v>1.5130999999999999</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="106">
         <v>1.1872</v>
       </c>
       <c r="F8" s="10">
@@ -1529,21 +1554,24 @@
       <c r="U8" s="10">
         <v>9.7698999999999998</v>
       </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="V8" s="10">
+        <v>-0.73329999999999995</v>
+      </c>
+      <c r="W8" s="10">
+        <v>-9.4329000000000001</v>
+      </c>
       <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="106">
         <v>0.8085</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="106">
         <v>0.93210000000000004</v>
       </c>
       <c r="F9" s="10">
@@ -1594,21 +1622,24 @@
       <c r="U9" s="10">
         <v>-17.898</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="V9" s="10">
+        <v>-2.4685999999999999</v>
+      </c>
+      <c r="W9" s="10">
+        <v>18.736000000000001</v>
+      </c>
       <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="106">
         <v>3.7565826459610201</v>
       </c>
-      <c r="E10" s="117">
+      <c r="E10" s="106">
         <v>3.9596845936110001</v>
       </c>
       <c r="F10" s="10">
@@ -1659,23 +1690,26 @@
       <c r="U10" s="10">
         <v>-12.5189</v>
       </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="V10" s="10">
+        <v>2.7618</v>
+      </c>
+      <c r="W10" s="10">
+        <v>11.5291</v>
+      </c>
       <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="106">
         <v>1.8280000000000001</v>
       </c>
-      <c r="E11" s="117">
+      <c r="E11" s="106">
         <v>3.1305000000000001</v>
       </c>
       <c r="F11" s="10">
@@ -1726,21 +1760,24 @@
       <c r="U11" s="10">
         <v>12.9491</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
+      <c r="V11" s="10">
+        <v>1.4415</v>
+      </c>
+      <c r="W11" s="10">
+        <v>-19.666799999999999</v>
+      </c>
       <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="106">
         <v>0.26650000000000001</v>
       </c>
-      <c r="E12" s="117">
+      <c r="E12" s="106">
         <v>0.38369999999999999</v>
       </c>
       <c r="F12" s="10">
@@ -1791,21 +1828,24 @@
       <c r="U12" s="10">
         <v>1.3579000000000001</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="V12" s="10">
+        <v>-3.2949999999999999</v>
+      </c>
+      <c r="W12" s="10">
+        <v>-2.5602999999999998</v>
+      </c>
       <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="106">
         <v>52.447200000000002</v>
       </c>
-      <c r="E13" s="117">
+      <c r="E13" s="106">
         <v>62.418300000000002</v>
       </c>
       <c r="F13" s="10">
@@ -1856,21 +1896,24 @@
       <c r="U13" s="10">
         <v>9.9718999999999998</v>
       </c>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="V13" s="10">
+        <v>1.7009000000000001</v>
+      </c>
+      <c r="W13" s="10">
+        <v>-8.9990000000000006</v>
+      </c>
       <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="106">
         <v>12.176399999999999</v>
       </c>
-      <c r="E14" s="117">
+      <c r="E14" s="106">
         <v>38.2821</v>
       </c>
       <c r="F14" s="10">
@@ -1921,12 +1964,15 @@
       <c r="U14" s="10">
         <v>-1.1408</v>
       </c>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
+      <c r="V14" s="10">
+        <v>-4.4386999999999999</v>
+      </c>
+      <c r="W14" s="10">
+        <v>3.3083</v>
+      </c>
       <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>4</v>
@@ -1934,10 +1980,10 @@
       <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="106">
         <v>0.67569999999999997</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="106">
         <v>0.79610000000000003</v>
       </c>
       <c r="F15" s="10">
@@ -1946,10 +1992,10 @@
       <c r="G15" s="10">
         <v>6.3678999999999997</v>
       </c>
-      <c r="H15" s="111" t="s">
+      <c r="H15" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="111" t="s">
+      <c r="I15" s="100" t="s">
         <v>64</v>
       </c>
       <c r="J15" s="10">
@@ -1958,16 +2004,16 @@
       <c r="K15" s="10">
         <v>7.8387000000000002</v>
       </c>
-      <c r="L15" s="111" t="s">
+      <c r="L15" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="111" t="s">
+      <c r="M15" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="111" t="s">
+      <c r="N15" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="111" t="s">
+      <c r="O15" s="100" t="s">
         <v>64</v>
       </c>
       <c r="P15" s="10">
@@ -1988,21 +2034,24 @@
       <c r="U15" s="10">
         <v>-51.1404</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="V15" s="10">
+        <v>8.3337000000000003</v>
+      </c>
+      <c r="W15" s="10">
+        <v>43.475900000000003</v>
+      </c>
       <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="106">
         <v>40.506799999999998</v>
       </c>
-      <c r="E16" s="117">
+      <c r="E16" s="106">
         <v>49.008600000000001</v>
       </c>
       <c r="F16" s="10">
@@ -2053,21 +2102,24 @@
       <c r="U16" s="10">
         <v>-0.82220000000000004</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="V16" s="10">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0.5484</v>
+      </c>
       <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="106">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="E17" s="117">
+      <c r="E17" s="106">
         <v>0.26869999999999999</v>
       </c>
       <c r="F17" s="10">
@@ -2118,21 +2170,24 @@
       <c r="U17" s="10">
         <v>-0.12839999999999999</v>
       </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+      <c r="V17" s="10">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="W17" s="10">
+        <v>9.9299999999999999E-2</v>
+      </c>
       <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="106">
         <v>0.58819999999999995</v>
       </c>
-      <c r="E18" s="117">
+      <c r="E18" s="106">
         <v>0.86639999999999995</v>
       </c>
       <c r="F18" s="10">
@@ -2183,27 +2238,30 @@
       <c r="U18" s="10">
         <v>-24.555099999999999</v>
       </c>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="V18" s="10">
+        <v>0.4269</v>
+      </c>
+      <c r="W18" s="10">
+        <v>23.093</v>
+      </c>
       <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="117">
+      <c r="D19" s="106">
         <v>0.80149999999999999</v>
       </c>
-      <c r="E19" s="117">
+      <c r="E19" s="106">
         <v>0.97850000000000004</v>
       </c>
-      <c r="F19" s="111" t="s">
+      <c r="F19" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="111" t="s">
+      <c r="G19" s="100" t="s">
         <v>64</v>
       </c>
       <c r="H19" s="10">
@@ -2248,21 +2306,24 @@
       <c r="U19" s="10">
         <v>65.847700000000003</v>
       </c>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="V19" s="10">
+        <v>-2.1399999999999999E-2</v>
+      </c>
+      <c r="W19" s="10">
+        <v>-65.826800000000006</v>
+      </c>
       <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="106">
         <v>0.4345</v>
       </c>
-      <c r="E20" s="117">
+      <c r="E20" s="106">
         <v>0.64470000000000005</v>
       </c>
       <c r="F20" s="10">
@@ -2313,21 +2374,24 @@
       <c r="U20" s="10">
         <v>1.8805000000000001</v>
       </c>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="V20" s="10">
+        <v>2.1570999999999998</v>
+      </c>
+      <c r="W20" s="10">
+        <v>-3.3877999999999999</v>
+      </c>
       <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D21" s="106">
         <v>0.71050000000000002</v>
       </c>
-      <c r="E21" s="117">
+      <c r="E21" s="106">
         <v>0.84189999999999998</v>
       </c>
       <c r="F21" s="10">
@@ -2378,12 +2442,15 @@
       <c r="U21" s="10">
         <v>-16.271799999999999</v>
       </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="V21" s="10">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="W21" s="10">
+        <v>15.1379</v>
+      </c>
       <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>5</v>
@@ -2391,10 +2458,10 @@
       <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="117">
+      <c r="D22" s="106">
         <v>0.62680000000000002</v>
       </c>
-      <c r="E22" s="117">
+      <c r="E22" s="106">
         <v>0.80320000000000003</v>
       </c>
       <c r="F22" s="10">
@@ -2445,21 +2512,24 @@
       <c r="U22" s="10">
         <v>-38.098599999999998</v>
       </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="V22" s="10">
+        <v>-7.5785</v>
+      </c>
+      <c r="W22" s="10">
+        <v>46.133600000000001</v>
+      </c>
       <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="106">
         <v>-0.63219999999999998</v>
       </c>
-      <c r="E23" s="117">
+      <c r="E23" s="106">
         <v>-0.39879999999999999</v>
       </c>
       <c r="F23" s="10">
@@ -2510,21 +2580,24 @@
       <c r="U23" s="10">
         <v>0.19900000000000001</v>
       </c>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="V23" s="10">
+        <v>1.369</v>
+      </c>
+      <c r="W23" s="10">
+        <v>-0.91020000000000001</v>
+      </c>
       <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="117">
+      <c r="D24" s="106">
         <v>0.65380000000000005</v>
       </c>
-      <c r="E24" s="117">
+      <c r="E24" s="106">
         <v>0.95840000000000003</v>
       </c>
       <c r="F24" s="10">
@@ -2575,21 +2648,24 @@
       <c r="U24" s="10">
         <v>-15.187200000000001</v>
       </c>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="V24" s="10">
+        <v>-6.1387999999999998</v>
+      </c>
+      <c r="W24" s="10">
+        <v>29.492899999999999</v>
+      </c>
       <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="117">
+      <c r="D25" s="106">
         <v>0.34499999999999997</v>
       </c>
-      <c r="E25" s="117">
+      <c r="E25" s="106">
         <v>0.75670000000000004</v>
       </c>
       <c r="F25" s="10">
@@ -2640,164 +2716,177 @@
       <c r="U25" s="10">
         <v>-0.23960000000000001</v>
       </c>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
+      <c r="V25" s="10">
+        <v>-13.912699999999999</v>
+      </c>
+      <c r="W25" s="10">
+        <v>6.2176</v>
+      </c>
       <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="112">
-        <f t="shared" ref="F26:S26" si="0">SUM(F7:F25)</f>
+      <c r="D26" s="99"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="101">
+        <f t="shared" ref="F26:R26" si="0">SUM(F7:F25)</f>
         <v>25.480400000000007</v>
       </c>
-      <c r="G26" s="112">
+      <c r="G26" s="101">
         <f t="shared" si="0"/>
         <v>91.921800000000019</v>
       </c>
-      <c r="H26" s="112">
+      <c r="H26" s="101">
         <f t="shared" si="0"/>
         <v>-0.50070000000000103</v>
       </c>
-      <c r="I26" s="112">
+      <c r="I26" s="101">
         <f t="shared" si="0"/>
         <v>8.550899999999988</v>
       </c>
-      <c r="J26" s="112">
+      <c r="J26" s="101">
         <f t="shared" si="0"/>
         <v>26.5611</v>
       </c>
-      <c r="K26" s="112">
+      <c r="K26" s="101">
         <f t="shared" si="0"/>
         <v>32.305</v>
       </c>
-      <c r="L26" s="112">
+      <c r="L26" s="101">
         <f t="shared" si="0"/>
         <v>17.520199999999996</v>
       </c>
-      <c r="M26" s="112">
+      <c r="M26" s="101">
         <f t="shared" si="0"/>
         <v>-17.623699999999996</v>
       </c>
-      <c r="N26" s="112">
+      <c r="N26" s="101">
         <f t="shared" si="0"/>
         <v>12.489600000000003</v>
       </c>
-      <c r="O26" s="112">
+      <c r="O26" s="101">
         <f>SUM(O7:O25)</f>
         <v>-14.026899999999989</v>
       </c>
-      <c r="P26" s="112">
+      <c r="P26" s="101">
         <f>SUM(P7:P25)</f>
         <v>-4.5873000000000017</v>
       </c>
-      <c r="Q26" s="112">
+      <c r="Q26" s="101">
         <f>SUM(Q7:Q25)</f>
         <v>18.093900000000005</v>
       </c>
-      <c r="R26" s="112">
+      <c r="R26" s="101">
         <f t="shared" si="0"/>
         <v>39.302700000000002</v>
       </c>
-      <c r="S26" s="112">
+      <c r="S26" s="101">
         <f>SUM(S7:S25)</f>
         <v>-58.620900000000006</v>
       </c>
-      <c r="T26" s="112">
+      <c r="T26" s="101">
         <f>SUM(T7:T25)</f>
         <v>10.68432</v>
       </c>
-      <c r="U26" s="128">
+      <c r="U26" s="117">
         <f>SUM(U7:U25)</f>
         <v>-79.557899999999989</v>
       </c>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
+      <c r="V26" s="101">
+        <f>SUM(V7:V25)</f>
+        <v>-18.0809</v>
+      </c>
+      <c r="W26" s="101">
+        <f>SUM(W7:W25)</f>
+        <v>90.356500000000011</v>
+      </c>
       <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="61" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="116">
+      <c r="D27" s="107"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="105">
         <f>F26/$G$53</f>
         <v>0.17783218432840092</v>
       </c>
-      <c r="G27" s="116">
+      <c r="G27" s="105">
         <f>G26/$G$53</f>
         <v>0.6415383777883551</v>
       </c>
-      <c r="H27" s="114">
+      <c r="H27" s="103">
         <f>H26/$I$53</f>
         <v>-4.7024067738700307E-3</v>
       </c>
-      <c r="I27" s="114">
+      <c r="I27" s="103">
         <f>I26/$I$53</f>
         <v>8.030719009923129E-2</v>
       </c>
-      <c r="J27" s="114">
+      <c r="J27" s="103">
         <f>J26/$K$53</f>
         <v>0.18985151310249981</v>
       </c>
-      <c r="K27" s="114">
+      <c r="K27" s="103">
         <f>K26/$K$53</f>
         <v>0.23090734686350553</v>
       </c>
-      <c r="L27" s="114">
+      <c r="L27" s="103">
         <f>L26/$M$53</f>
         <v>0.14866701853055525</v>
       </c>
-      <c r="M27" s="114">
+      <c r="M27" s="103">
         <f>M26/$M$53</f>
         <v>-0.14954526400822746</v>
       </c>
-      <c r="N27" s="114">
+      <c r="N27" s="103">
         <f>N26/$O$53</f>
         <v>9.9680755969863366E-2</v>
       </c>
-      <c r="O27" s="114">
+      <c r="O27" s="103">
         <f>O26/$O$53</f>
         <v>-0.11195010215808954</v>
       </c>
-      <c r="P27" s="114">
+      <c r="P27" s="103">
         <f>P26/$Q$53</f>
         <v>-6.2600301313333134E-2</v>
       </c>
-      <c r="Q27" s="114">
+      <c r="Q27" s="103">
         <f>Q26/$Q$53</f>
         <v>0.24691726983919043</v>
       </c>
-      <c r="R27" s="114">
+      <c r="R27" s="103">
         <f>R26/$S$53</f>
         <v>0.34919719925769149</v>
       </c>
-      <c r="S27" s="114">
+      <c r="S27" s="103">
         <f>S26/$S$53</f>
         <v>-0.52083582293239927</v>
       </c>
-      <c r="T27" s="114">
+      <c r="T27" s="103">
         <f>T26/U53</f>
         <v>-0.12394930759725942</v>
       </c>
-      <c r="U27" s="114">
+      <c r="U27" s="103">
         <f>U26/U53</f>
         <v>0.92295500498787053</v>
       </c>
-      <c r="V27" s="115"/>
-      <c r="W27" s="115"/>
+      <c r="V27" s="103">
+        <f>V26/W53</f>
+        <v>-0.22266652052851113</v>
+      </c>
+      <c r="W27" s="103">
+        <f>W26/W53</f>
+        <v>1.1127414820133079</v>
+      </c>
       <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>2</v>
@@ -2805,980 +2894,1025 @@
       <c r="C28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="117">
+      <c r="D28" s="106">
         <v>0.11105147978678701</v>
       </c>
-      <c r="E28" s="122">
+      <c r="E28" s="111">
         <v>-0.24178399627116801</v>
       </c>
-      <c r="F28" s="123">
+      <c r="F28" s="112">
         <v>1.9363999999999999</v>
       </c>
-      <c r="G28" s="123">
+      <c r="G28" s="112">
         <v>-0.55759999999999998</v>
       </c>
-      <c r="H28" s="115">
+      <c r="H28" s="104">
         <v>0.23619999999999999</v>
       </c>
-      <c r="I28" s="115">
+      <c r="I28" s="104">
         <v>1.6552</v>
       </c>
-      <c r="J28" s="115">
+      <c r="J28" s="104">
         <v>1.2618</v>
       </c>
-      <c r="K28" s="115">
+      <c r="K28" s="104">
         <v>-9.8799999999999999E-2</v>
       </c>
-      <c r="L28" s="123">
+      <c r="L28" s="112">
         <v>2.5476999999999999</v>
       </c>
-      <c r="M28" s="115">
+      <c r="M28" s="104">
         <v>-1.9560999999999999</v>
       </c>
-      <c r="N28" s="115">
+      <c r="N28" s="104">
         <v>1.7418</v>
       </c>
-      <c r="O28" s="115">
+      <c r="O28" s="104">
         <v>-4.48E-2</v>
       </c>
-      <c r="P28" s="115">
+      <c r="P28" s="104">
         <v>2.6597</v>
       </c>
-      <c r="Q28" s="115">
+      <c r="Q28" s="104">
         <v>-0.62239999999999995</v>
       </c>
-      <c r="R28" s="115">
+      <c r="R28" s="104">
         <v>-2.6800000000000001E-2</v>
       </c>
-      <c r="S28" s="115">
+      <c r="S28" s="104">
         <v>0.71220000000000006</v>
       </c>
-      <c r="T28" s="115">
+      <c r="T28" s="104">
         <v>1.5828</v>
       </c>
-      <c r="U28" s="115">
+      <c r="U28" s="104">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="V28" s="115"/>
-      <c r="W28" s="115"/>
+      <c r="V28" s="104">
+        <v>-1.635</v>
+      </c>
+      <c r="W28" s="104">
+        <v>3.04E-2</v>
+      </c>
       <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="117">
+      <c r="D29" s="106">
         <v>-0.138414636558955</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="111">
         <v>0.15869539446954201</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="112">
         <v>-0.2203</v>
       </c>
-      <c r="G29" s="123">
+      <c r="G29" s="112">
         <v>1.3971</v>
       </c>
-      <c r="H29" s="115">
+      <c r="H29" s="104">
         <v>2.9205999999999999</v>
       </c>
-      <c r="I29" s="115">
+      <c r="I29" s="104">
         <v>0.98460000000000003</v>
       </c>
-      <c r="J29" s="115">
+      <c r="J29" s="104">
         <v>2.1991000000000001</v>
       </c>
-      <c r="K29" s="115">
+      <c r="K29" s="104">
         <v>0.1956</v>
       </c>
-      <c r="L29" s="123">
+      <c r="L29" s="112">
         <v>2.1747999999999998</v>
       </c>
-      <c r="M29" s="115">
+      <c r="M29" s="104">
         <v>2.0724999999999998</v>
       </c>
-      <c r="N29" s="115">
+      <c r="N29" s="104">
         <v>-6.88E-2</v>
       </c>
-      <c r="O29" s="115">
+      <c r="O29" s="104">
         <v>-1.3801000000000001</v>
       </c>
-      <c r="P29" s="115">
+      <c r="P29" s="104">
         <v>1.1331</v>
       </c>
-      <c r="Q29" s="115">
+      <c r="Q29" s="104">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="R29" s="115">
+      <c r="R29" s="104">
         <v>3.0066000000000002</v>
       </c>
-      <c r="S29" s="115">
+      <c r="S29" s="104">
         <v>0.95299999999999996</v>
       </c>
-      <c r="T29" s="115">
+      <c r="T29" s="104">
         <v>1.0185999999999999</v>
       </c>
-      <c r="U29" s="115">
+      <c r="U29" s="104">
         <v>0.38890000000000002</v>
       </c>
-      <c r="V29" s="115"/>
-      <c r="W29" s="115"/>
+      <c r="V29" s="104">
+        <v>-5.3600000000000002E-2</v>
+      </c>
+      <c r="W29" s="104">
+        <v>-1.3540000000000001</v>
+      </c>
       <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="106">
         <v>3.5990132419473602</v>
       </c>
-      <c r="E30" s="122">
+      <c r="E30" s="111">
         <v>3.2206968641114999</v>
       </c>
-      <c r="F30" s="123">
+      <c r="F30" s="112">
         <v>-3.359</v>
       </c>
-      <c r="G30" s="123">
+      <c r="G30" s="112">
         <v>-34.808399999999999</v>
       </c>
-      <c r="H30" s="115">
+      <c r="H30" s="104">
         <v>9.5280000000000005</v>
       </c>
-      <c r="I30" s="115">
+      <c r="I30" s="104">
         <v>-44.012</v>
       </c>
-      <c r="J30" s="115">
+      <c r="J30" s="104">
         <v>-2.0941000000000001</v>
       </c>
-      <c r="K30" s="115">
+      <c r="K30" s="104">
         <v>-29.334199999999999</v>
       </c>
-      <c r="L30" s="123">
+      <c r="L30" s="112">
         <v>15.7577</v>
       </c>
-      <c r="M30" s="115">
+      <c r="M30" s="104">
         <v>-58.088000000000001</v>
       </c>
-      <c r="N30" s="115">
+      <c r="N30" s="104">
         <v>14.099600000000001</v>
       </c>
-      <c r="O30" s="115">
+      <c r="O30" s="104">
         <v>-56.677199999999999</v>
       </c>
-      <c r="P30" s="115">
+      <c r="P30" s="104">
         <v>-10.6968</v>
       </c>
-      <c r="Q30" s="115">
+      <c r="Q30" s="104">
         <v>-28.5366</v>
       </c>
-      <c r="R30" s="115">
+      <c r="R30" s="104">
         <v>23.194099999999999</v>
       </c>
-      <c r="S30" s="115">
+      <c r="S30" s="104">
         <v>-63.077399999999997</v>
       </c>
-      <c r="T30" s="115">
+      <c r="T30" s="104">
         <v>1.2012</v>
       </c>
-      <c r="U30" s="115">
+      <c r="U30" s="104">
         <v>-2.4455</v>
       </c>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
+      <c r="V30" s="104">
+        <v>-11.4368</v>
+      </c>
+      <c r="W30" s="104">
+        <v>1.8702000000000001</v>
+      </c>
       <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="117">
+      <c r="D31" s="106">
         <v>3.8959795555149901</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E31" s="111">
         <v>3.7877777777777801</v>
       </c>
-      <c r="F31" s="123">
+      <c r="F31" s="112">
         <v>4.4240000000000004</v>
       </c>
-      <c r="G31" s="123">
+      <c r="G31" s="112">
         <v>14.123799999999999</v>
       </c>
-      <c r="H31" s="115">
+      <c r="H31" s="104">
         <v>-3.6621000000000001</v>
       </c>
-      <c r="I31" s="115">
+      <c r="I31" s="104">
         <v>14.9222</v>
       </c>
-      <c r="J31" s="115">
+      <c r="J31" s="104">
         <v>1.0459000000000001</v>
       </c>
-      <c r="K31" s="115">
+      <c r="K31" s="104">
         <v>14.6798</v>
       </c>
-      <c r="L31" s="123">
+      <c r="L31" s="112">
         <v>-0.14660000000000001</v>
       </c>
-      <c r="M31" s="115">
+      <c r="M31" s="104">
         <v>43.986499999999999</v>
       </c>
-      <c r="N31" s="115">
+      <c r="N31" s="104">
         <v>-4.8692000000000002</v>
       </c>
-      <c r="O31" s="115">
+      <c r="O31" s="104">
         <v>13.717599999999999</v>
       </c>
-      <c r="P31" s="115">
+      <c r="P31" s="104">
         <v>0.42149999999999999</v>
       </c>
-      <c r="Q31" s="115">
+      <c r="Q31" s="104">
         <v>-18.447500000000002</v>
       </c>
-      <c r="R31" s="115">
+      <c r="R31" s="104">
         <v>-3.8340000000000001</v>
       </c>
-      <c r="S31" s="115">
+      <c r="S31" s="104">
         <v>24.301100000000002</v>
       </c>
-      <c r="T31" s="115">
+      <c r="T31" s="104">
         <v>-3.1122000000000001</v>
       </c>
-      <c r="U31" s="115">
+      <c r="U31" s="104">
         <v>-8.4981000000000009</v>
       </c>
-      <c r="V31" s="115"/>
-      <c r="W31" s="115"/>
+      <c r="V31" s="104">
+        <v>4.4884000000000004</v>
+      </c>
+      <c r="W31" s="104">
+        <v>7.1219000000000001</v>
+      </c>
       <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="119">
+      <c r="D32" s="108">
         <v>40.419600000000003</v>
       </c>
-      <c r="E32" s="124">
+      <c r="E32" s="113">
         <v>26.6023</v>
       </c>
-      <c r="F32" s="125" t="s">
+      <c r="F32" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="125" t="s">
+      <c r="G32" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="115">
+      <c r="H32" s="104">
         <v>-6.3503999999999996</v>
       </c>
-      <c r="I32" s="115">
+      <c r="I32" s="104">
         <v>7.3597999999999999</v>
       </c>
-      <c r="J32" s="115">
+      <c r="J32" s="104">
         <v>-1.7445999999999999</v>
       </c>
-      <c r="K32" s="115">
+      <c r="K32" s="104">
         <v>-0.64149999999999996</v>
       </c>
-      <c r="L32" s="125" t="s">
+      <c r="L32" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="M32" s="125" t="s">
+      <c r="M32" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="115">
+      <c r="N32" s="104">
         <v>-3.7414000000000001</v>
       </c>
-      <c r="O32" s="115">
+      <c r="O32" s="104">
         <v>3.6261999999999999</v>
       </c>
-      <c r="P32" s="115">
+      <c r="P32" s="104">
         <v>-3.7307999999999999</v>
       </c>
-      <c r="Q32" s="115">
+      <c r="Q32" s="104">
         <v>3.9064999999999999</v>
       </c>
-      <c r="R32" s="115">
+      <c r="R32" s="104">
         <v>-4.5879000000000003</v>
       </c>
-      <c r="S32" s="115">
+      <c r="S32" s="104">
         <v>-17.802</v>
       </c>
-      <c r="T32" s="115">
+      <c r="T32" s="104">
         <v>-8.0828000000000007</v>
       </c>
-      <c r="U32" s="115">
+      <c r="U32" s="104">
         <v>-1.1654</v>
       </c>
-      <c r="V32" s="115"/>
-      <c r="W32" s="115"/>
+      <c r="V32" s="104">
+        <v>8.6256000000000004</v>
+      </c>
+      <c r="W32" s="104">
+        <v>0.62270000000000003</v>
+      </c>
       <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="119">
+      <c r="D33" s="108">
         <v>3.1193</v>
       </c>
-      <c r="E33" s="124">
+      <c r="E33" s="113">
         <v>2.1743999999999999</v>
       </c>
-      <c r="F33" s="125">
+      <c r="F33" s="114">
         <v>-5.6001000000000003</v>
       </c>
-      <c r="G33" s="125">
+      <c r="G33" s="114">
         <v>18.846299999999999</v>
       </c>
-      <c r="H33" s="115">
+      <c r="H33" s="104">
         <v>-2.1429999999999998</v>
       </c>
-      <c r="I33" s="115">
+      <c r="I33" s="104">
         <v>-1.2957000000000001</v>
       </c>
-      <c r="J33" s="115">
+      <c r="J33" s="104">
         <v>-0.49669999999999997</v>
       </c>
-      <c r="K33" s="115">
+      <c r="K33" s="104">
         <v>6.2450000000000001</v>
       </c>
-      <c r="L33" s="123">
+      <c r="L33" s="112">
         <v>-5.2107999999999999</v>
       </c>
-      <c r="M33" s="115">
+      <c r="M33" s="104">
         <v>-3.2033</v>
       </c>
-      <c r="N33" s="115">
+      <c r="N33" s="104">
         <v>-1.2324999999999999</v>
       </c>
-      <c r="O33" s="115">
+      <c r="O33" s="104">
         <v>-10.9724</v>
       </c>
-      <c r="P33" s="115">
+      <c r="P33" s="104">
         <v>-1.5344</v>
       </c>
-      <c r="Q33" s="115">
+      <c r="Q33" s="104">
         <v>-3.2852000000000001</v>
       </c>
-      <c r="R33" s="115">
+      <c r="R33" s="104">
         <v>-0.84379999999999999</v>
       </c>
-      <c r="S33" s="115">
+      <c r="S33" s="104">
         <v>9.0344999999999995</v>
       </c>
-      <c r="T33" s="115">
+      <c r="T33" s="104">
         <v>-3.3967000000000001</v>
       </c>
-      <c r="U33" s="115">
+      <c r="U33" s="104">
         <v>3.5560999999999998</v>
       </c>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
+      <c r="V33" s="104">
+        <v>2.0466000000000002</v>
+      </c>
+      <c r="W33" s="104">
+        <v>0.20599999999999999</v>
+      </c>
       <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="119">
+      <c r="D34" s="108">
         <v>-1.4605999999999999</v>
       </c>
-      <c r="E34" s="124">
+      <c r="E34" s="113">
         <v>-2.1343000000000001</v>
       </c>
-      <c r="F34" s="125">
+      <c r="F34" s="114">
         <v>0.41170000000000001</v>
       </c>
-      <c r="G34" s="125">
+      <c r="G34" s="114">
         <v>-1.4204000000000001</v>
       </c>
-      <c r="H34" s="115">
+      <c r="H34" s="104">
         <v>2.4134000000000002</v>
       </c>
-      <c r="I34" s="115">
+      <c r="I34" s="104">
         <v>17.440799999999999</v>
       </c>
-      <c r="J34" s="115">
+      <c r="J34" s="104">
         <v>-0.53190000000000004</v>
       </c>
-      <c r="K34" s="115">
+      <c r="K34" s="104">
         <v>-1.6968000000000001</v>
       </c>
-      <c r="L34" s="123">
+      <c r="L34" s="112">
         <v>1.5112000000000001</v>
       </c>
-      <c r="M34" s="115">
+      <c r="M34" s="104">
         <v>0.80369999999999997</v>
       </c>
-      <c r="N34" s="115">
+      <c r="N34" s="104">
         <v>1.4103000000000001</v>
       </c>
-      <c r="O34" s="115">
+      <c r="O34" s="104">
         <v>17.262899999999998</v>
       </c>
-      <c r="P34" s="115">
+      <c r="P34" s="104">
         <v>1.9975000000000001</v>
       </c>
-      <c r="Q34" s="115">
+      <c r="Q34" s="104">
         <v>4.6253000000000002</v>
       </c>
-      <c r="R34" s="115">
+      <c r="R34" s="104">
         <v>0.88429999999999997</v>
       </c>
-      <c r="S34" s="115">
+      <c r="S34" s="104">
         <v>5.3532000000000002</v>
       </c>
-      <c r="T34" s="115">
+      <c r="T34" s="104">
         <v>2.4335</v>
       </c>
-      <c r="U34" s="115">
+      <c r="U34" s="104">
         <v>-2.6004</v>
       </c>
-      <c r="V34" s="115"/>
-      <c r="W34" s="115"/>
+      <c r="V34" s="104">
+        <v>-6.7778</v>
+      </c>
+      <c r="W34" s="104">
+        <v>6.9447000000000001</v>
+      </c>
       <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="119">
+      <c r="D35" s="108">
         <v>-0.1424</v>
       </c>
-      <c r="E35" s="124">
+      <c r="E35" s="113">
         <v>-0.2361</v>
       </c>
-      <c r="F35" s="125">
+      <c r="F35" s="114">
         <v>0.3533</v>
       </c>
-      <c r="G35" s="125">
+      <c r="G35" s="114">
         <v>0.59409999999999996</v>
       </c>
-      <c r="H35" s="115">
+      <c r="H35" s="104">
         <v>0.31830000000000003</v>
       </c>
-      <c r="I35" s="115">
+      <c r="I35" s="104">
         <v>0.32700000000000001</v>
       </c>
-      <c r="J35" s="115">
+      <c r="J35" s="104">
         <v>-0.36840000000000001</v>
       </c>
-      <c r="K35" s="115">
+      <c r="K35" s="104">
         <v>0.72660000000000002</v>
       </c>
-      <c r="L35" s="123">
+      <c r="L35" s="112">
         <v>-0.1767</v>
       </c>
-      <c r="M35" s="115">
+      <c r="M35" s="104">
         <v>0.93149999999999999</v>
       </c>
-      <c r="N35" s="115">
+      <c r="N35" s="104">
         <v>0.46329999999999999</v>
       </c>
-      <c r="O35" s="115">
+      <c r="O35" s="104">
         <v>1.8325</v>
       </c>
-      <c r="P35" s="115">
+      <c r="P35" s="104">
         <v>0.2273</v>
       </c>
-      <c r="Q35" s="115">
+      <c r="Q35" s="104">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="R35" s="115">
+      <c r="R35" s="104">
         <v>-0.50560000000000005</v>
       </c>
-      <c r="S35" s="115">
+      <c r="S35" s="104">
         <v>0.28239999999999998</v>
       </c>
-      <c r="T35" s="115">
+      <c r="T35" s="104">
         <v>0.92420000000000002</v>
       </c>
-      <c r="U35" s="115">
+      <c r="U35" s="104">
         <v>-2.4857</v>
       </c>
-      <c r="V35" s="115"/>
-      <c r="W35" s="115"/>
+      <c r="V35" s="104">
+        <v>2.4811999999999999</v>
+      </c>
+      <c r="W35" s="104">
+        <v>-0.91969999999999996</v>
+      </c>
       <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="113" t="s">
+      <c r="C36" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="119">
+      <c r="D36" s="108">
         <v>-0.74270000000000003</v>
       </c>
-      <c r="E36" s="124">
+      <c r="E36" s="113">
         <v>-1.0743</v>
       </c>
-      <c r="F36" s="125">
+      <c r="F36" s="114">
         <v>-3.3855</v>
       </c>
-      <c r="G36" s="125">
+      <c r="G36" s="114">
         <v>-5.5084999999999997</v>
       </c>
-      <c r="H36" s="115">
+      <c r="H36" s="104">
         <v>-4.8773999999999997</v>
       </c>
-      <c r="I36" s="115">
+      <c r="I36" s="104">
         <v>-7.6374000000000004</v>
       </c>
-      <c r="J36" s="115">
+      <c r="J36" s="104">
         <v>2.5024999999999999</v>
       </c>
-      <c r="K36" s="115">
+      <c r="K36" s="104">
         <v>-8.6590000000000007</v>
       </c>
-      <c r="L36" s="123">
+      <c r="L36" s="112">
         <v>-5.5090000000000003</v>
       </c>
-      <c r="M36" s="115">
+      <c r="M36" s="104">
         <v>-3.6070000000000002</v>
       </c>
-      <c r="N36" s="115">
+      <c r="N36" s="104">
         <v>-6.0766</v>
       </c>
-      <c r="O36" s="115">
+      <c r="O36" s="104">
         <v>-3.1882000000000001</v>
       </c>
-      <c r="P36" s="115">
+      <c r="P36" s="104">
         <v>-6.2788000000000004</v>
       </c>
-      <c r="Q36" s="115">
+      <c r="Q36" s="104">
         <v>-2.0394000000000001</v>
       </c>
-      <c r="R36" s="115">
+      <c r="R36" s="104">
         <v>-2.8570000000000002</v>
       </c>
-      <c r="S36" s="115">
+      <c r="S36" s="104">
         <v>-5.5975999999999999</v>
       </c>
-      <c r="T36" s="115">
+      <c r="T36" s="104">
         <v>-9.2127999999999997</v>
       </c>
-      <c r="U36" s="115">
+      <c r="U36" s="104">
         <v>-0.1094</v>
       </c>
-      <c r="V36" s="115"/>
-      <c r="W36" s="115"/>
+      <c r="V36" s="104">
+        <v>7.1148999999999996</v>
+      </c>
+      <c r="W36" s="104">
+        <v>2.2071999999999998</v>
+      </c>
       <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="113" t="s">
+      <c r="C37" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="119">
+      <c r="D37" s="108">
         <v>53.639299999999999</v>
       </c>
-      <c r="E37" s="124">
+      <c r="E37" s="113">
         <v>50.786000000000001</v>
       </c>
-      <c r="F37" s="125">
+      <c r="F37" s="114">
         <v>5.3E-3</v>
       </c>
-      <c r="G37" s="125">
+      <c r="G37" s="114">
         <v>-0.47360000000000002</v>
       </c>
-      <c r="H37" s="115">
+      <c r="H37" s="104">
         <v>-5.04E-2</v>
       </c>
-      <c r="I37" s="115">
+      <c r="I37" s="104">
         <v>-5.2598000000000003</v>
       </c>
-      <c r="J37" s="115">
+      <c r="J37" s="104">
         <v>-6.2E-2</v>
       </c>
-      <c r="K37" s="115">
+      <c r="K37" s="104">
         <v>1.7571000000000001</v>
       </c>
-      <c r="L37" s="123">
+      <c r="L37" s="112">
         <v>-0.29110000000000003</v>
       </c>
-      <c r="M37" s="115">
+      <c r="M37" s="104">
         <v>-0.15989999999999999</v>
       </c>
-      <c r="N37" s="115">
+      <c r="N37" s="104">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="O37" s="115">
+      <c r="O37" s="104">
         <v>-6.5237999999999996</v>
       </c>
-      <c r="P37" s="115">
+      <c r="P37" s="104">
         <v>-0.3221</v>
       </c>
-      <c r="Q37" s="115">
+      <c r="Q37" s="104">
         <v>-4.9515000000000002</v>
       </c>
-      <c r="R37" s="115">
+      <c r="R37" s="104">
         <v>0.15970000000000001</v>
       </c>
-      <c r="S37" s="115">
+      <c r="S37" s="104">
         <v>0.85029999999999994</v>
       </c>
-      <c r="T37" s="115">
+      <c r="T37" s="104">
         <v>-0.77049999999999996</v>
       </c>
-      <c r="U37" s="115">
+      <c r="U37" s="104">
         <v>-8.6599000000000004</v>
       </c>
-      <c r="V37" s="115"/>
-      <c r="W37" s="115"/>
+      <c r="V37" s="104">
+        <v>5.1708999999999996</v>
+      </c>
+      <c r="W37" s="104">
+        <v>4.2595000000000001</v>
+      </c>
       <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="110" t="s">
+      <c r="C38" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="117">
+      <c r="D38" s="106">
         <v>0.79049999999999998</v>
       </c>
-      <c r="E38" s="122">
+      <c r="E38" s="111">
         <v>0.78549999999999998</v>
       </c>
-      <c r="F38" s="125" t="s">
+      <c r="F38" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="125" t="s">
+      <c r="G38" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="H38" s="115">
+      <c r="H38" s="104">
         <v>-5.6425999999999998</v>
       </c>
-      <c r="I38" s="115">
+      <c r="I38" s="104">
         <v>-5.2096999999999998</v>
       </c>
-      <c r="J38" s="115">
+      <c r="J38" s="104">
         <v>1.2766</v>
       </c>
-      <c r="K38" s="115">
+      <c r="K38" s="104">
         <v>-17.526299999999999</v>
       </c>
-      <c r="L38" s="123">
+      <c r="L38" s="112">
         <v>3.5045999999999999</v>
       </c>
-      <c r="M38" s="115">
+      <c r="M38" s="104">
         <v>-16.721299999999999</v>
       </c>
-      <c r="N38" s="115">
+      <c r="N38" s="104">
         <v>0.629</v>
       </c>
-      <c r="O38" s="115">
+      <c r="O38" s="104">
         <v>-14.382099999999999</v>
       </c>
-      <c r="P38" s="115">
+      <c r="P38" s="104">
         <v>2.7490000000000001</v>
       </c>
-      <c r="Q38" s="115">
+      <c r="Q38" s="104">
         <v>-10.973699999999999</v>
       </c>
-      <c r="R38" s="115">
+      <c r="R38" s="104">
         <v>3.2614000000000001</v>
       </c>
-      <c r="S38" s="115">
+      <c r="S38" s="104">
         <v>-33.462699999999998</v>
       </c>
-      <c r="T38" s="115">
+      <c r="T38" s="104">
         <v>2.5554999999999999</v>
       </c>
-      <c r="U38" s="115">
+      <c r="U38" s="104">
         <v>-0.76200000000000001</v>
       </c>
-      <c r="V38" s="115"/>
-      <c r="W38" s="115"/>
+      <c r="V38" s="104">
+        <v>-2.4418000000000002</v>
+      </c>
+      <c r="W38" s="104">
+        <v>0.64829999999999999</v>
+      </c>
       <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="117">
+      <c r="D39" s="106">
         <v>35.012950381398497</v>
       </c>
-      <c r="E39" s="122">
+      <c r="E39" s="111">
         <v>42.504301515772198</v>
       </c>
-      <c r="F39" s="123">
+      <c r="F39" s="112">
         <v>-8.6778999999999993</v>
       </c>
-      <c r="G39" s="123">
+      <c r="G39" s="112">
         <v>-23.444500000000001</v>
       </c>
-      <c r="H39" s="115">
+      <c r="H39" s="104">
         <v>-0.58040000000000003</v>
       </c>
-      <c r="I39" s="115">
+      <c r="I39" s="104">
         <v>-46.766399999999997</v>
       </c>
-      <c r="J39" s="115">
+      <c r="J39" s="104">
         <v>-4.7920999999999996</v>
       </c>
-      <c r="K39" s="115">
+      <c r="K39" s="104">
         <v>-13.5878</v>
       </c>
-      <c r="L39" s="123">
+      <c r="L39" s="112">
         <v>-5.4852999999999996</v>
       </c>
-      <c r="M39" s="115">
+      <c r="M39" s="104">
         <v>-59.9741</v>
       </c>
-      <c r="N39" s="115">
+      <c r="N39" s="104">
         <v>-9.4772999999999996</v>
       </c>
-      <c r="O39" s="115">
+      <c r="O39" s="104">
         <v>-36.534799999999997</v>
       </c>
-      <c r="P39" s="115">
+      <c r="P39" s="104">
         <v>-3.6669999999999998</v>
       </c>
-      <c r="Q39" s="115">
+      <c r="Q39" s="104">
         <v>-20.323899999999998</v>
       </c>
-      <c r="R39" s="115">
+      <c r="R39" s="104">
         <v>-8.5485000000000007</v>
       </c>
-      <c r="S39" s="115">
+      <c r="S39" s="104">
         <v>10.7592</v>
       </c>
-      <c r="T39" s="115">
+      <c r="T39" s="104">
         <v>-2.2002999999999999</v>
       </c>
-      <c r="U39" s="115">
+      <c r="U39" s="104">
         <v>-21.9057</v>
       </c>
-      <c r="V39" s="115"/>
-      <c r="W39" s="115"/>
+      <c r="V39" s="104">
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="W39" s="104">
+        <v>23.701499999999999</v>
+      </c>
       <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="106">
         <v>0.49747084865111502</v>
       </c>
-      <c r="E40" s="122">
+      <c r="E40" s="111">
         <v>0.140244783861284</v>
       </c>
-      <c r="F40" s="123">
+      <c r="F40" s="112">
         <v>2.9241999999999999</v>
       </c>
-      <c r="G40" s="123">
+      <c r="G40" s="112">
         <v>0.3422</v>
       </c>
-      <c r="H40" s="115">
+      <c r="H40" s="104">
         <v>2.7311999999999999</v>
       </c>
-      <c r="I40" s="115">
+      <c r="I40" s="104">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J40" s="115">
+      <c r="J40" s="104">
         <v>4.5552999999999999</v>
       </c>
-      <c r="K40" s="115">
+      <c r="K40" s="104">
         <v>-4.0316000000000001</v>
       </c>
-      <c r="L40" s="123">
+      <c r="L40" s="112">
         <v>1.1106</v>
       </c>
-      <c r="M40" s="115">
+      <c r="M40" s="104">
         <v>-0.86560000000000004</v>
       </c>
-      <c r="N40" s="115">
+      <c r="N40" s="104">
         <v>1.4043000000000001</v>
       </c>
-      <c r="O40" s="115">
+      <c r="O40" s="104">
         <v>-0.73329999999999995</v>
       </c>
-      <c r="P40" s="115">
+      <c r="P40" s="104">
         <v>4.7077999999999998</v>
       </c>
-      <c r="Q40" s="115">
+      <c r="Q40" s="104">
         <v>-9.8512000000000004</v>
       </c>
-      <c r="R40" s="115">
+      <c r="R40" s="104">
         <v>-2.34511</v>
       </c>
-      <c r="S40" s="115">
+      <c r="S40" s="104">
         <v>1.3381000000000001</v>
       </c>
-      <c r="T40" s="115">
+      <c r="T40" s="104">
         <v>1.2575000000000001</v>
       </c>
-      <c r="U40" s="115">
+      <c r="U40" s="104">
         <v>-2.1</v>
       </c>
-      <c r="V40" s="115"/>
-      <c r="W40" s="115"/>
+      <c r="V40" s="104">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="W40" s="104">
+        <v>0.75560000000000005</v>
+      </c>
       <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="117">
+      <c r="D41" s="106">
         <v>3.7583195358710901E-2</v>
       </c>
-      <c r="E41" s="122">
+      <c r="E41" s="111">
         <v>-0.29405263220736499</v>
       </c>
-      <c r="F41" s="123">
+      <c r="F41" s="112">
         <v>-6.2933000000000003</v>
       </c>
-      <c r="G41" s="123">
+      <c r="G41" s="112">
         <v>-7.4800000000000005E-2</v>
       </c>
-      <c r="H41" s="115">
+      <c r="H41" s="104">
         <v>-7.7804000000000002</v>
       </c>
-      <c r="I41" s="115">
+      <c r="I41" s="104">
         <v>1.8946000000000001</v>
       </c>
-      <c r="J41" s="115">
+      <c r="J41" s="104">
         <v>-9.9415999999999993</v>
       </c>
-      <c r="K41" s="115">
+      <c r="K41" s="104">
         <v>1.028</v>
       </c>
-      <c r="L41" s="123">
+      <c r="L41" s="112">
         <v>-0.4259</v>
       </c>
-      <c r="M41" s="115">
+      <c r="M41" s="104">
         <v>-1.4027000000000001</v>
       </c>
-      <c r="N41" s="115">
+      <c r="N41" s="104">
         <v>-1.9897</v>
       </c>
-      <c r="O41" s="115">
+      <c r="O41" s="104">
         <v>-0.26429999999999998</v>
       </c>
-      <c r="P41" s="115">
+      <c r="P41" s="104">
         <v>-4.4467999999999996</v>
       </c>
-      <c r="Q41" s="115">
+      <c r="Q41" s="104">
         <v>1.0381</v>
       </c>
-      <c r="R41" s="115">
+      <c r="R41" s="104">
         <v>3.9636</v>
       </c>
-      <c r="S41" s="115">
+      <c r="S41" s="104">
         <v>1.4813000000000001</v>
       </c>
-      <c r="T41" s="115">
+      <c r="T41" s="104">
         <v>-3.4883999999999999</v>
       </c>
-      <c r="U41" s="115">
+      <c r="U41" s="104">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="V41" s="115"/>
-      <c r="W41" s="115"/>
+      <c r="V41" s="104">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="W41" s="104">
+        <v>2.9116</v>
+      </c>
       <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="117">
+      <c r="D42" s="106">
         <v>-0.216866233077908</v>
       </c>
-      <c r="E42" s="122">
+      <c r="E42" s="111">
         <v>-1.64454548120108</v>
       </c>
-      <c r="F42" s="123">
+      <c r="F42" s="112">
         <v>11.313599999999999</v>
       </c>
-      <c r="G42" s="123">
+      <c r="G42" s="112">
         <v>4.9119000000000002</v>
       </c>
-      <c r="H42" s="115">
+      <c r="H42" s="104">
         <v>6.7157</v>
       </c>
-      <c r="I42" s="115">
+      <c r="I42" s="104">
         <v>1.8929</v>
       </c>
-      <c r="J42" s="115">
+      <c r="J42" s="104">
         <v>18.549800000000001</v>
       </c>
-      <c r="K42" s="115">
+      <c r="K42" s="104">
         <v>-10.611599999999999</v>
       </c>
-      <c r="L42" s="123">
+      <c r="L42" s="112">
         <v>0.53359999999999996</v>
       </c>
-      <c r="M42" s="115">
+      <c r="M42" s="104">
         <v>8.9056999999999995</v>
       </c>
-      <c r="N42" s="115">
+      <c r="N42" s="104">
         <v>14.926299999999999</v>
       </c>
-      <c r="O42" s="115">
+      <c r="O42" s="104">
         <v>-0.34429999999999999</v>
       </c>
-      <c r="P42" s="115">
+      <c r="P42" s="104">
         <v>27.683599999999998</v>
       </c>
-      <c r="Q42" s="115">
+      <c r="Q42" s="104">
         <v>-19.989100000000001</v>
       </c>
-      <c r="R42" s="115">
+      <c r="R42" s="104">
         <v>3.4112</v>
       </c>
-      <c r="S42" s="115">
+      <c r="S42" s="104">
         <v>7.9172000000000002</v>
       </c>
-      <c r="T42" s="115">
+      <c r="T42" s="104">
         <v>8.2979000000000003</v>
       </c>
-      <c r="U42" s="115">
+      <c r="U42" s="104">
         <v>4.5457999999999998</v>
       </c>
-      <c r="V42" s="115"/>
-      <c r="W42" s="115"/>
+      <c r="V42" s="104">
+        <v>-0.85650000000000004</v>
+      </c>
+      <c r="W42" s="104">
+        <v>-11.987299999999999</v>
+      </c>
       <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>5</v>
@@ -3786,815 +3920,850 @@
       <c r="C43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="117">
+      <c r="D43" s="106">
         <v>0.45079999999999998</v>
       </c>
-      <c r="E43" s="122">
+      <c r="E43" s="111">
         <v>0.31009999999999999</v>
       </c>
-      <c r="F43" s="123">
+      <c r="F43" s="112">
         <v>5.0475000000000003</v>
       </c>
-      <c r="G43" s="123">
+      <c r="G43" s="112">
         <v>-6.7473999999999998</v>
       </c>
-      <c r="H43" s="115">
+      <c r="H43" s="104">
         <v>-3.0844999999999998</v>
       </c>
-      <c r="I43" s="115">
+      <c r="I43" s="104">
         <v>-2.9438</v>
       </c>
-      <c r="J43" s="115">
+      <c r="J43" s="104">
         <v>5.1410999999999998</v>
       </c>
-      <c r="K43" s="115">
+      <c r="K43" s="104">
         <v>-1.5650999999999999</v>
       </c>
-      <c r="L43" s="123">
+      <c r="L43" s="112">
         <v>2.5741999999999998</v>
       </c>
-      <c r="M43" s="115">
+      <c r="M43" s="104">
         <v>-2.1225000000000001</v>
       </c>
-      <c r="N43" s="115">
+      <c r="N43" s="104">
         <v>1.4527000000000001</v>
       </c>
-      <c r="O43" s="115">
+      <c r="O43" s="104">
         <v>-6.9017999999999997</v>
       </c>
-      <c r="P43" s="115">
+      <c r="P43" s="104">
         <v>3.5728</v>
       </c>
-      <c r="Q43" s="115">
+      <c r="Q43" s="104">
         <v>-3.3755999999999999</v>
       </c>
-      <c r="R43" s="115">
+      <c r="R43" s="104">
         <v>6.7826000000000004</v>
       </c>
-      <c r="S43" s="115">
+      <c r="S43" s="104">
         <v>6.9161999999999999</v>
       </c>
-      <c r="T43" s="125" t="s">
+      <c r="T43" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="U43" s="125" t="s">
+      <c r="U43" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="V43" s="115"/>
-      <c r="W43" s="115"/>
+      <c r="V43" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="W43" s="114" t="s">
+        <v>64</v>
+      </c>
       <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="117">
+      <c r="D44" s="106">
         <v>0.14030000000000001</v>
       </c>
-      <c r="E44" s="122">
+      <c r="E44" s="111">
         <v>0.45839999999999997</v>
       </c>
-      <c r="F44" s="115">
+      <c r="F44" s="104">
         <v>-7.49</v>
       </c>
-      <c r="G44" s="115">
+      <c r="G44" s="104">
         <v>-0.6774</v>
       </c>
-      <c r="H44" s="115">
+      <c r="H44" s="104">
         <v>-11.2676</v>
       </c>
-      <c r="I44" s="115">
+      <c r="I44" s="104">
         <v>-1.7406999999999999</v>
       </c>
-      <c r="J44" s="115">
+      <c r="J44" s="104">
         <v>-7.3432000000000004</v>
       </c>
-      <c r="K44" s="115">
+      <c r="K44" s="104">
         <v>-1.496</v>
       </c>
-      <c r="L44" s="115">
+      <c r="L44" s="104">
         <v>-10.417</v>
       </c>
-      <c r="M44" s="115">
+      <c r="M44" s="104">
         <v>-1.5033000000000001</v>
       </c>
-      <c r="N44" s="115">
+      <c r="N44" s="104">
         <v>-8.1091999999999995</v>
       </c>
-      <c r="O44" s="115">
+      <c r="O44" s="104">
         <v>-1.6368</v>
       </c>
-      <c r="P44" s="115">
+      <c r="P44" s="104">
         <v>-9.3596000000000004</v>
       </c>
-      <c r="Q44" s="115">
+      <c r="Q44" s="104">
         <v>-2.0706000000000002</v>
       </c>
-      <c r="R44" s="115">
+      <c r="R44" s="104">
         <v>-11.82</v>
       </c>
-      <c r="S44" s="115">
+      <c r="S44" s="104">
         <v>0.9214</v>
       </c>
-      <c r="T44" s="125" t="s">
+      <c r="T44" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="U44" s="125" t="s">
+      <c r="U44" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="V44" s="115"/>
-      <c r="W44" s="115"/>
+      <c r="V44" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="W44" s="114" t="s">
+        <v>64</v>
+      </c>
       <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="117">
+      <c r="D45" s="106">
         <v>0.1714</v>
       </c>
-      <c r="E45" s="122">
+      <c r="E45" s="111">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="F45" s="123">
+      <c r="F45" s="112">
         <v>-5.4999999999999997E-3</v>
       </c>
-      <c r="G45" s="123">
+      <c r="G45" s="112">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="H45" s="115">
+      <c r="H45" s="104">
         <v>4.4454000000000002</v>
       </c>
-      <c r="I45" s="115">
+      <c r="I45" s="104">
         <v>-2.5785999999999998</v>
       </c>
-      <c r="J45" s="115">
+      <c r="J45" s="104">
         <v>2.0065</v>
       </c>
-      <c r="K45" s="115">
+      <c r="K45" s="104">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="L45" s="123">
+      <c r="L45" s="112">
         <v>6.1700999999999997</v>
       </c>
-      <c r="M45" s="115">
+      <c r="M45" s="104">
         <v>-12.897600000000001</v>
       </c>
-      <c r="N45" s="115">
+      <c r="N45" s="104">
         <v>10.934900000000001</v>
       </c>
-      <c r="O45" s="115">
+      <c r="O45" s="104">
         <v>-11.4833</v>
       </c>
-      <c r="P45" s="115">
+      <c r="P45" s="104">
         <v>0.18770000000000001</v>
       </c>
-      <c r="Q45" s="115">
+      <c r="Q45" s="104">
         <v>1.3994</v>
       </c>
-      <c r="R45" s="125" t="s">
+      <c r="R45" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="S45" s="125" t="s">
+      <c r="S45" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="T45" s="125">
+      <c r="T45" s="114">
         <v>0.19617000000000001</v>
       </c>
-      <c r="U45" s="125">
+      <c r="U45" s="114">
         <v>-5.3329000000000004</v>
       </c>
-      <c r="V45" s="115"/>
-      <c r="W45" s="115"/>
+      <c r="V45" s="114">
+        <v>1.9492</v>
+      </c>
+      <c r="W45" s="114">
+        <v>3.1875</v>
+      </c>
       <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="117">
+      <c r="D46" s="106">
         <v>25.723299999999998</v>
       </c>
-      <c r="E46" s="122">
+      <c r="E46" s="111">
         <v>16.610399999999998</v>
       </c>
-      <c r="F46" s="123">
+      <c r="F46" s="112">
         <v>0.67100000000000004</v>
       </c>
-      <c r="G46" s="123">
+      <c r="G46" s="112">
         <v>-10.891400000000001</v>
       </c>
-      <c r="H46" s="115">
+      <c r="H46" s="104">
         <v>4.5327999999999999</v>
       </c>
-      <c r="I46" s="115">
+      <c r="I46" s="104">
         <v>-23.740400000000001</v>
       </c>
-      <c r="J46" s="115">
+      <c r="J46" s="104">
         <v>11.480499999999999</v>
       </c>
-      <c r="K46" s="115">
+      <c r="K46" s="104">
         <v>-29.682400000000001</v>
       </c>
-      <c r="L46" s="125" t="s">
+      <c r="L46" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="M46" s="125" t="s">
+      <c r="M46" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="N46" s="125" t="s">
+      <c r="N46" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="O46" s="125" t="s">
+      <c r="O46" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="115">
+      <c r="P46" s="104">
         <v>0.26819999999999999</v>
       </c>
-      <c r="Q46" s="115">
+      <c r="Q46" s="104">
         <v>-8.9641000000000002</v>
       </c>
-      <c r="R46" s="115">
+      <c r="R46" s="104">
         <v>-0.35499999999999998</v>
       </c>
-      <c r="S46" s="115">
+      <c r="S46" s="104">
         <v>-19.7408</v>
       </c>
-      <c r="T46" s="123">
+      <c r="T46" s="112">
         <v>0.22919999999999999</v>
       </c>
-      <c r="U46" s="123">
+      <c r="U46" s="112">
         <v>-3.3761000000000001</v>
       </c>
-      <c r="V46" s="115"/>
-      <c r="W46" s="115"/>
+      <c r="V46" s="112">
+        <v>-0.13109999999999999</v>
+      </c>
+      <c r="W46" s="112">
+        <v>3.278</v>
+      </c>
       <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="117">
+      <c r="D47" s="106">
         <v>0.39090000000000003</v>
       </c>
-      <c r="E47" s="122">
+      <c r="E47" s="111">
         <v>0.22159999999999999</v>
       </c>
-      <c r="F47" s="123">
+      <c r="F47" s="112">
         <v>2.9895</v>
       </c>
-      <c r="G47" s="123">
+      <c r="G47" s="112">
         <v>-4.1901999999999999</v>
       </c>
-      <c r="H47" s="115">
+      <c r="H47" s="104">
         <v>7.6894</v>
       </c>
-      <c r="I47" s="115">
+      <c r="I47" s="104">
         <v>-12.933</v>
       </c>
-      <c r="J47" s="115">
+      <c r="J47" s="104">
         <v>-1.56</v>
       </c>
-      <c r="K47" s="115">
+      <c r="K47" s="104">
         <v>-11.068099999999999</v>
       </c>
-      <c r="L47" s="123">
+      <c r="L47" s="112">
         <v>3.8323999999999998</v>
       </c>
-      <c r="M47" s="115">
+      <c r="M47" s="104">
         <v>-25.5703</v>
       </c>
-      <c r="N47" s="115">
+      <c r="N47" s="104">
         <v>3.6968000000000001</v>
       </c>
-      <c r="O47" s="115">
+      <c r="O47" s="104">
         <v>-11.776999999999999</v>
       </c>
-      <c r="P47" s="115">
+      <c r="P47" s="104">
         <v>7.5765000000000002</v>
       </c>
-      <c r="Q47" s="115">
+      <c r="Q47" s="104">
         <v>-21.464400000000001</v>
       </c>
-      <c r="R47" s="115">
+      <c r="R47" s="104">
         <v>1.8274999999999999</v>
       </c>
-      <c r="S47" s="115">
+      <c r="S47" s="104">
         <v>-7.3367000000000004</v>
       </c>
-      <c r="T47" s="123">
+      <c r="T47" s="112">
         <v>7.9599000000000002</v>
       </c>
-      <c r="U47" s="123">
+      <c r="U47" s="112">
         <v>-8.3436000000000003</v>
       </c>
-      <c r="V47" s="115"/>
-      <c r="W47" s="115"/>
+      <c r="V47" s="112">
+        <v>-3.1063000000000001</v>
+      </c>
+      <c r="W47" s="112">
+        <v>3.4899</v>
+      </c>
       <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="117">
+      <c r="D48" s="106">
         <v>-0.25419999999999998</v>
       </c>
-      <c r="E48" s="122">
+      <c r="E48" s="111">
         <v>-1.0419</v>
       </c>
-      <c r="F48" s="123">
+      <c r="F48" s="112">
         <v>-4.4263000000000003</v>
       </c>
-      <c r="G48" s="123">
+      <c r="G48" s="112">
         <v>-8.8247</v>
       </c>
-      <c r="H48" s="115">
+      <c r="H48" s="104">
         <v>-10.9579</v>
       </c>
-      <c r="I48" s="115">
+      <c r="I48" s="104">
         <v>-0.39550000000000002</v>
       </c>
-      <c r="J48" s="115">
+      <c r="J48" s="104">
         <v>-17.204499999999999</v>
       </c>
-      <c r="K48" s="115">
+      <c r="K48" s="104">
         <v>8.6425000000000001</v>
       </c>
-      <c r="L48" s="123">
+      <c r="L48" s="112">
         <v>1.6803999999999999</v>
       </c>
-      <c r="M48" s="115">
+      <c r="M48" s="104">
         <v>5.5624000000000002</v>
       </c>
-      <c r="N48" s="115">
+      <c r="N48" s="104">
         <v>-10.363899999999999</v>
       </c>
-      <c r="O48" s="115">
+      <c r="O48" s="104">
         <v>0.52170000000000005</v>
       </c>
-      <c r="P48" s="115">
+      <c r="P48" s="104">
         <v>-21.848400000000002</v>
       </c>
-      <c r="Q48" s="115">
+      <c r="Q48" s="104">
         <v>10.7935</v>
       </c>
-      <c r="R48" s="115">
+      <c r="R48" s="104">
         <v>-2.7900999999999998</v>
       </c>
-      <c r="S48" s="115">
+      <c r="S48" s="104">
         <v>-17.253799999999998</v>
       </c>
-      <c r="T48" s="123">
+      <c r="T48" s="112">
         <v>-11.366400000000001</v>
       </c>
-      <c r="U48" s="123">
+      <c r="U48" s="112">
         <v>-1.2101999999999999</v>
       </c>
-      <c r="V48" s="115"/>
-      <c r="W48" s="115"/>
+      <c r="V48" s="112">
+        <v>-7.8404999999999996</v>
+      </c>
+      <c r="W48" s="112">
+        <v>20.417200000000001</v>
+      </c>
       <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="117">
+      <c r="D49" s="106">
         <v>0.470956947357906</v>
       </c>
-      <c r="E49" s="122">
+      <c r="E49" s="111">
         <v>0.16775911511675501</v>
       </c>
-      <c r="F49" s="123">
+      <c r="F49" s="112">
         <v>0.53180000000000005</v>
       </c>
-      <c r="G49" s="123">
+      <c r="G49" s="112">
         <v>-8.6245999999999992</v>
       </c>
-      <c r="H49" s="115">
+      <c r="H49" s="104">
         <v>0.29099000000000003</v>
       </c>
-      <c r="I49" s="115">
+      <c r="I49" s="104">
         <v>-2.4563000000000001</v>
       </c>
-      <c r="J49" s="115">
+      <c r="J49" s="104">
         <v>0.4597</v>
       </c>
-      <c r="K49" s="115">
+      <c r="K49" s="104">
         <v>-7.9356999999999998</v>
       </c>
-      <c r="L49" s="123">
+      <c r="L49" s="112">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="M49" s="115">
+      <c r="M49" s="104">
         <v>-2.8344</v>
       </c>
-      <c r="N49" s="115">
+      <c r="N49" s="104">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="O49" s="115">
+      <c r="O49" s="104">
         <v>0.15590000000000001</v>
       </c>
-      <c r="P49" s="115">
+      <c r="P49" s="104">
         <v>0.69269999999999998</v>
       </c>
-      <c r="Q49" s="115">
+      <c r="Q49" s="104">
         <v>3.9018000000000002</v>
       </c>
-      <c r="R49" s="115">
+      <c r="R49" s="104">
         <v>0.154</v>
       </c>
-      <c r="S49" s="115">
+      <c r="S49" s="104">
         <v>-3.1366999999999998</v>
       </c>
-      <c r="T49" s="123">
+      <c r="T49" s="112">
         <v>0.72719999999999996</v>
       </c>
-      <c r="U49" s="123">
+      <c r="U49" s="112">
         <v>-32.196300000000001</v>
       </c>
-      <c r="V49" s="115"/>
-      <c r="W49" s="115"/>
+      <c r="V49" s="112">
+        <v>24.672499999999999</v>
+      </c>
+      <c r="W49" s="112">
+        <v>6.7965</v>
+      </c>
       <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="112">
-        <f t="shared" ref="F50:S50" si="1">SUM(F28:F49)</f>
+      <c r="D50" s="99"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="101">
+        <f t="shared" ref="F50:Q50" si="1">SUM(F28:F49)</f>
         <v>-8.8496000000000024</v>
       </c>
-      <c r="G50" s="112">
+      <c r="G50" s="101">
         <f t="shared" si="1"/>
         <v>-66.0364</v>
       </c>
-      <c r="H50" s="112">
+      <c r="H50" s="101">
         <f t="shared" si="1"/>
         <v>-14.57471</v>
       </c>
-      <c r="I50" s="112">
+      <c r="I50" s="101">
         <f t="shared" si="1"/>
         <v>-109.59979999999999</v>
       </c>
-      <c r="J50" s="112">
+      <c r="J50" s="101">
         <f t="shared" si="1"/>
         <v>4.3397000000000023</v>
       </c>
-      <c r="K50" s="112">
+      <c r="K50" s="101">
         <f t="shared" si="1"/>
         <v>-104.64869999999999</v>
       </c>
-      <c r="L50" s="112">
+      <c r="L50" s="101">
         <f t="shared" si="1"/>
         <v>13.7697</v>
       </c>
-      <c r="M50" s="112">
+      <c r="M50" s="101">
         <f t="shared" si="1"/>
         <v>-128.6438</v>
       </c>
-      <c r="N50" s="112">
+      <c r="N50" s="101">
         <f t="shared" si="1"/>
         <v>4.7213000000000029</v>
       </c>
-      <c r="O50" s="112">
+      <c r="O50" s="101">
         <f t="shared" si="1"/>
         <v>-125.72740000000002</v>
       </c>
-      <c r="P50" s="112">
+      <c r="P50" s="101">
         <f t="shared" si="1"/>
         <v>-8.0073000000000008</v>
       </c>
-      <c r="Q50" s="112">
+      <c r="Q50" s="101">
         <f t="shared" si="1"/>
         <v>-129.52250000000001</v>
       </c>
-      <c r="R50" s="112">
+      <c r="R50" s="101">
         <f>SUM(R28:R49)</f>
         <v>8.1311900000000001</v>
       </c>
-      <c r="S50" s="112">
+      <c r="S50" s="101">
         <f>SUM(S28:S49)</f>
         <v>-96.587599999999981</v>
       </c>
-      <c r="T50" s="112">
+      <c r="T50" s="101">
         <f>SUM(T28:T49)</f>
         <v>-13.246429999999997</v>
       </c>
-      <c r="U50" s="112">
+      <c r="U50" s="101">
         <f>SUM(U28:U49)</f>
         <v>-92.633800000000008</v>
       </c>
-      <c r="V50" s="115"/>
-      <c r="W50" s="115"/>
+      <c r="V50" s="101">
+        <f>SUM(V28:V49)</f>
+        <v>23.293099999999999</v>
+      </c>
+      <c r="W50" s="101">
+        <f>SUM(W28:W49)</f>
+        <v>74.187699999999992</v>
+      </c>
       <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="114">
+      <c r="E51" s="104"/>
+      <c r="F51" s="103">
         <f>F50/$G$53</f>
         <v>-6.1762911823700445E-2</v>
       </c>
-      <c r="G51" s="114">
+      <c r="G51" s="103">
         <f>G50/$G$53</f>
         <v>-0.4608796273678597</v>
       </c>
-      <c r="H51" s="114">
+      <c r="H51" s="103">
         <f>H50/$I$53</f>
         <v>-0.13688079694665695</v>
       </c>
-      <c r="I51" s="114">
+      <c r="I51" s="103">
         <f>I50/$I$53</f>
         <v>-1.0293246293884553</v>
       </c>
-      <c r="J51" s="114">
+      <c r="J51" s="103">
         <f>J50/$K$53</f>
         <v>3.1018994371879136E-2</v>
       </c>
-      <c r="K51" s="114">
+      <c r="K51" s="103">
         <f>K50/$K$53</f>
         <v>-0.74800042314548609</v>
       </c>
-      <c r="L51" s="114">
+      <c r="L51" s="103">
         <f>L50/$M$53</f>
         <v>0.1168422874773226</v>
       </c>
-      <c r="M51" s="114">
+      <c r="M51" s="103">
         <f>M50/$M$53</f>
         <v>-1.0916022761407433</v>
       </c>
-      <c r="N51" s="114">
+      <c r="N51" s="103">
         <f>N50/$O$53</f>
         <v>3.7681170987102559E-2</v>
       </c>
-      <c r="O51" s="114">
+      <c r="O51" s="103">
         <f>O50/$O$53</f>
         <v>-1.0034430468650235</v>
       </c>
-      <c r="P51" s="114">
+      <c r="P51" s="103">
         <f>P50/$Q$53</f>
         <v>-0.10927111649690499</v>
       </c>
-      <c r="Q51" s="114">
+      <c r="Q51" s="103">
         <f>Q50/$Q$53</f>
         <v>-1.7675206607059029</v>
       </c>
-      <c r="R51" s="114">
+      <c r="R51" s="103">
         <f>R50/$S$53</f>
         <v>7.2244114898776635E-2</v>
       </c>
-      <c r="S51" s="114">
+      <c r="S51" s="103">
         <f>S50/$S$53</f>
         <v>-0.85816291000420308</v>
       </c>
-      <c r="T51" s="114">
+      <c r="T51" s="103">
         <f>T50/U53</f>
         <v>0.1536724683120278</v>
       </c>
-      <c r="U51" s="114">
+      <c r="U51" s="103">
         <f>U50/U53</f>
         <v>1.0746491466095185</v>
       </c>
-      <c r="V51" s="115"/>
-      <c r="W51" s="115"/>
+      <c r="V51" s="103">
+        <f>V50/W53</f>
+        <v>0.28685483185696853</v>
+      </c>
+      <c r="W51" s="103">
+        <f>W50/W53</f>
+        <v>0.91362249805114926</v>
+      </c>
       <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="112">
-        <f t="shared" ref="F52:S52" si="2">F26+F50</f>
+      <c r="E52" s="104"/>
+      <c r="F52" s="101">
+        <f t="shared" ref="F52:P52" si="2">F26+F50</f>
         <v>16.630800000000004</v>
       </c>
-      <c r="G52" s="112">
+      <c r="G52" s="101">
         <f t="shared" si="2"/>
         <v>25.885400000000018</v>
       </c>
-      <c r="H52" s="112">
+      <c r="H52" s="101">
         <f t="shared" si="2"/>
         <v>-15.075410000000002</v>
       </c>
-      <c r="I52" s="112">
+      <c r="I52" s="101">
         <f t="shared" si="2"/>
         <v>-101.0489</v>
       </c>
-      <c r="J52" s="112">
+      <c r="J52" s="101">
         <f t="shared" si="2"/>
         <v>30.900800000000004</v>
       </c>
-      <c r="K52" s="112">
+      <c r="K52" s="101">
         <f t="shared" si="2"/>
         <v>-72.343699999999984</v>
       </c>
-      <c r="L52" s="112">
+      <c r="L52" s="101">
         <f t="shared" si="2"/>
         <v>31.289899999999996</v>
       </c>
-      <c r="M52" s="112">
+      <c r="M52" s="101">
         <f t="shared" si="2"/>
         <v>-146.26749999999998</v>
       </c>
-      <c r="N52" s="112">
+      <c r="N52" s="101">
         <f t="shared" si="2"/>
         <v>17.210900000000006</v>
       </c>
-      <c r="O52" s="112">
+      <c r="O52" s="101">
         <f t="shared" si="2"/>
         <v>-139.7543</v>
       </c>
-      <c r="P52" s="112">
+      <c r="P52" s="101">
         <f t="shared" si="2"/>
         <v>-12.594600000000003</v>
       </c>
-      <c r="Q52" s="112">
+      <c r="Q52" s="101">
         <f>Q26+Q50</f>
         <v>-111.4286</v>
       </c>
-      <c r="R52" s="112">
+      <c r="R52" s="101">
         <f>R26+R50</f>
         <v>47.433890000000005</v>
       </c>
-      <c r="S52" s="112">
+      <c r="S52" s="101">
         <f>S26+S50</f>
         <v>-155.20849999999999</v>
       </c>
-      <c r="T52" s="112">
+      <c r="T52" s="101">
         <f>T26+T50</f>
         <v>-2.562109999999997</v>
       </c>
-      <c r="U52" s="128">
+      <c r="U52" s="117">
         <f>U26+U50</f>
         <v>-172.1917</v>
       </c>
-      <c r="V52" s="115"/>
-      <c r="W52" s="115"/>
+      <c r="V52" s="101">
+        <f>V26+V50</f>
+        <v>5.2121999999999993</v>
+      </c>
+      <c r="W52" s="117">
+        <f>W26+W50</f>
+        <v>164.54419999999999</v>
+      </c>
       <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="126" t="s">
+      <c r="E53" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="126"/>
-      <c r="G53" s="127">
+      <c r="F53" s="115"/>
+      <c r="G53" s="116">
         <f>F52+G52+G6</f>
         <v>143.28340000000003</v>
       </c>
-      <c r="H53" s="126"/>
-      <c r="I53" s="127">
+      <c r="H53" s="115"/>
+      <c r="I53" s="116">
         <f>H52+I52+I6</f>
         <v>106.47738999999999</v>
       </c>
-      <c r="J53" s="126"/>
-      <c r="K53" s="127">
+      <c r="J53" s="115"/>
+      <c r="K53" s="116">
         <f>J52+K52+K6</f>
         <v>139.90460000000002</v>
       </c>
-      <c r="L53" s="126"/>
-      <c r="M53" s="127">
+      <c r="L53" s="115"/>
+      <c r="M53" s="116">
         <f>L52+M52+M6</f>
         <v>117.8486</v>
       </c>
-      <c r="N53" s="126"/>
-      <c r="O53" s="127">
+      <c r="N53" s="115"/>
+      <c r="O53" s="116">
         <f>N52+O52+O6</f>
         <v>125.29600000000002</v>
       </c>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="127">
+      <c r="P53" s="115"/>
+      <c r="Q53" s="116">
         <f>P52+Q52+Q6</f>
         <v>73.279200000000003</v>
       </c>
-      <c r="R53" s="126"/>
-      <c r="S53" s="127">
+      <c r="R53" s="115"/>
+      <c r="S53" s="116">
         <f>R52+S52+S6</f>
         <v>112.55159000000002</v>
       </c>
-      <c r="T53" s="127"/>
-      <c r="U53" s="127">
+      <c r="T53" s="116"/>
+      <c r="U53" s="116">
         <f>T52+U52+U6</f>
         <v>-86.19910999999999</v>
       </c>
-      <c r="V53" s="115"/>
-      <c r="W53" s="115"/>
+      <c r="V53" s="116"/>
+      <c r="W53" s="116">
+        <f>V52+W52+W6</f>
+        <v>81.201699999999988</v>
+      </c>
       <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="115"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="115"/>
-      <c r="N54" s="115"/>
-      <c r="O54" s="115"/>
-      <c r="P54" s="115"/>
-      <c r="Q54" s="115"/>
-      <c r="R54" s="115"/>
-      <c r="S54" s="115"/>
-      <c r="T54" s="115"/>
-      <c r="U54" s="115"/>
-      <c r="V54" s="115"/>
-      <c r="W54" s="115"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="104"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="104"/>
       <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="115"/>
-      <c r="L55" s="115"/>
-      <c r="M55" s="115"/>
-      <c r="N55" s="115"/>
-      <c r="O55" s="115"/>
-      <c r="P55" s="115"/>
-      <c r="Q55" s="115"/>
-      <c r="R55" s="115"/>
-      <c r="S55" s="115"/>
-      <c r="T55" s="115"/>
-      <c r="U55" s="115"/>
-      <c r="V55" s="115"/>
-      <c r="W55" s="115"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="104"/>
+      <c r="U55" s="104"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
       <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="115"/>
-      <c r="L56" s="115"/>
-      <c r="M56" s="115"/>
-      <c r="N56" s="115"/>
-      <c r="O56" s="115"/>
-      <c r="P56" s="115"/>
-      <c r="Q56" s="115"/>
-      <c r="R56" s="115"/>
-      <c r="S56" s="115"/>
-      <c r="T56" s="115"/>
-      <c r="U56" s="115"/>
-      <c r="V56" s="115"/>
-      <c r="W56" s="115"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
       <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4619,9 +4788,8 @@
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4646,9 +4814,8 @@
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
       <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4673,9 +4840,8 @@
       <c r="V59" s="10"/>
       <c r="W59" s="10"/>
       <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4700,9 +4866,8 @@
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4727,9 +4892,8 @@
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
       <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4754,9 +4918,8 @@
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
       <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4781,9 +4944,8 @@
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
       <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4808,9 +4970,8 @@
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
       <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4835,9 +4996,8 @@
       <c r="V65" s="10"/>
       <c r="W65" s="10"/>
       <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4862,9 +5022,8 @@
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -4889,10 +5048,11 @@
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
       <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
@@ -4976,18 +5136,18 @@
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105" t="s">
+      <c r="E4" s="118"/>
+      <c r="F4" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105" t="s">
+      <c r="G4" s="118"/>
+      <c r="H4" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="105"/>
+      <c r="I4" s="118"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -4999,22 +5159,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="96" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="10"/>
@@ -5027,16 +5187,16 @@
       <c r="C6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109">
+      <c r="D6" s="98"/>
+      <c r="E6" s="98">
         <v>197.30240000000001</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109">
+      <c r="F6" s="98"/>
+      <c r="G6" s="98">
         <v>220.3262</v>
       </c>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109">
+      <c r="H6" s="98"/>
+      <c r="I6" s="98">
         <v>88.554699999999997</v>
       </c>
     </row>
@@ -5103,7 +5263,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="99" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="10">
@@ -5163,7 +5323,7 @@
       <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="99" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="10">
@@ -5603,32 +5763,32 @@
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="112">
+      <c r="D26" s="101">
         <f>SUM(D7:D25)</f>
         <v>-4.5873000000000017</v>
       </c>
-      <c r="E26" s="112">
+      <c r="E26" s="101">
         <f>SUM(E7:E25)</f>
         <v>18.093900000000005</v>
       </c>
-      <c r="F26" s="112">
+      <c r="F26" s="101">
         <f t="shared" ref="F26" si="0">SUM(F7:F25)</f>
         <v>39.302700000000002</v>
       </c>
-      <c r="G26" s="112">
+      <c r="G26" s="101">
         <f>SUM(G7:G25)</f>
         <v>-58.620900000000006</v>
       </c>
-      <c r="H26" s="112">
+      <c r="H26" s="101">
         <f>SUM(H7:H25)</f>
         <v>10.68432</v>
       </c>
-      <c r="I26" s="128">
+      <c r="I26" s="117">
         <f>SUM(I7:I25)</f>
         <v>-79.557899999999989</v>
       </c>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
@@ -5638,32 +5798,32 @@
         <v>0</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="114">
+      <c r="D27" s="103">
         <f>D26/$E$53</f>
         <v>-6.2600301313333134E-2</v>
       </c>
-      <c r="E27" s="114">
+      <c r="E27" s="103">
         <f>E26/$E$53</f>
         <v>0.24691726983919043</v>
       </c>
-      <c r="F27" s="114">
+      <c r="F27" s="103">
         <f>F26/$G$53</f>
         <v>0.34919719925769149</v>
       </c>
-      <c r="G27" s="114">
+      <c r="G27" s="103">
         <f>G26/$G$53</f>
         <v>-0.52083582293239927</v>
       </c>
-      <c r="H27" s="114">
+      <c r="H27" s="103">
         <f>H26/I53</f>
         <v>-0.12394930759725942</v>
       </c>
-      <c r="I27" s="114">
+      <c r="I27" s="103">
         <f>I26/I53</f>
         <v>0.92295500498787053</v>
       </c>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
@@ -5675,26 +5835,26 @@
       <c r="C28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="115">
+      <c r="D28" s="104">
         <v>2.6597</v>
       </c>
-      <c r="E28" s="115">
+      <c r="E28" s="104">
         <v>-0.62239999999999995</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="104">
         <v>-2.6800000000000001E-2</v>
       </c>
-      <c r="G28" s="115">
+      <c r="G28" s="104">
         <v>0.71220000000000006</v>
       </c>
-      <c r="H28" s="115">
+      <c r="H28" s="104">
         <v>1.5828</v>
       </c>
-      <c r="I28" s="115">
+      <c r="I28" s="104">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
@@ -5704,26 +5864,26 @@
       <c r="C29" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="115">
+      <c r="D29" s="104">
         <v>1.1331</v>
       </c>
-      <c r="E29" s="115">
+      <c r="E29" s="104">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="F29" s="115">
+      <c r="F29" s="104">
         <v>3.0066000000000002</v>
       </c>
-      <c r="G29" s="115">
+      <c r="G29" s="104">
         <v>0.95299999999999996</v>
       </c>
-      <c r="H29" s="115">
+      <c r="H29" s="104">
         <v>1.0185999999999999</v>
       </c>
-      <c r="I29" s="115">
+      <c r="I29" s="104">
         <v>0.38890000000000002</v>
       </c>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
@@ -5733,26 +5893,26 @@
       <c r="C30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="115">
+      <c r="D30" s="104">
         <v>-10.6968</v>
       </c>
-      <c r="E30" s="115">
+      <c r="E30" s="104">
         <v>-28.5366</v>
       </c>
-      <c r="F30" s="115">
+      <c r="F30" s="104">
         <v>23.194099999999999</v>
       </c>
-      <c r="G30" s="115">
+      <c r="G30" s="104">
         <v>-63.077399999999997</v>
       </c>
-      <c r="H30" s="115">
+      <c r="H30" s="104">
         <v>1.2012</v>
       </c>
-      <c r="I30" s="115">
+      <c r="I30" s="104">
         <v>-2.4455</v>
       </c>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
@@ -5762,26 +5922,26 @@
       <c r="C31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="115">
+      <c r="D31" s="104">
         <v>0.42149999999999999</v>
       </c>
-      <c r="E31" s="115">
+      <c r="E31" s="104">
         <v>-18.447500000000002</v>
       </c>
-      <c r="F31" s="115">
+      <c r="F31" s="104">
         <v>-3.8340000000000001</v>
       </c>
-      <c r="G31" s="115">
+      <c r="G31" s="104">
         <v>24.301100000000002</v>
       </c>
-      <c r="H31" s="115">
+      <c r="H31" s="104">
         <v>-3.1122000000000001</v>
       </c>
-      <c r="I31" s="115">
+      <c r="I31" s="104">
         <v>-8.4981000000000009</v>
       </c>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
@@ -5790,174 +5950,174 @@
       <c r="B32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="115">
+      <c r="D32" s="104">
         <v>-3.7307999999999999</v>
       </c>
-      <c r="E32" s="115">
+      <c r="E32" s="104">
         <v>3.9064999999999999</v>
       </c>
-      <c r="F32" s="115">
+      <c r="F32" s="104">
         <v>-4.5879000000000003</v>
       </c>
-      <c r="G32" s="115">
+      <c r="G32" s="104">
         <v>-17.802</v>
       </c>
-      <c r="H32" s="115">
+      <c r="H32" s="104">
         <v>-8.0828000000000007</v>
       </c>
-      <c r="I32" s="115">
+      <c r="I32" s="104">
         <v>-1.1654</v>
       </c>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="115">
+      <c r="D33" s="104">
         <v>-1.5344</v>
       </c>
-      <c r="E33" s="115">
+      <c r="E33" s="104">
         <v>-3.2852000000000001</v>
       </c>
-      <c r="F33" s="115">
+      <c r="F33" s="104">
         <v>-0.84379999999999999</v>
       </c>
-      <c r="G33" s="115">
+      <c r="G33" s="104">
         <v>9.0344999999999995</v>
       </c>
-      <c r="H33" s="115">
+      <c r="H33" s="104">
         <v>-3.3967000000000001</v>
       </c>
-      <c r="I33" s="115">
+      <c r="I33" s="104">
         <v>3.5560999999999998</v>
       </c>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="115">
+      <c r="D34" s="104">
         <v>1.9975000000000001</v>
       </c>
-      <c r="E34" s="115">
+      <c r="E34" s="104">
         <v>4.6253000000000002</v>
       </c>
-      <c r="F34" s="115">
+      <c r="F34" s="104">
         <v>0.88429999999999997</v>
       </c>
-      <c r="G34" s="115">
+      <c r="G34" s="104">
         <v>5.3532000000000002</v>
       </c>
-      <c r="H34" s="115">
+      <c r="H34" s="104">
         <v>2.4335</v>
       </c>
-      <c r="I34" s="115">
+      <c r="I34" s="104">
         <v>-2.6004</v>
       </c>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="115">
+      <c r="D35" s="104">
         <v>0.2273</v>
       </c>
-      <c r="E35" s="115">
+      <c r="E35" s="104">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="F35" s="115">
+      <c r="F35" s="104">
         <v>-0.50560000000000005</v>
       </c>
-      <c r="G35" s="115">
+      <c r="G35" s="104">
         <v>0.28239999999999998</v>
       </c>
-      <c r="H35" s="115">
+      <c r="H35" s="104">
         <v>0.92420000000000002</v>
       </c>
-      <c r="I35" s="115">
+      <c r="I35" s="104">
         <v>-2.4857</v>
       </c>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="113" t="s">
+      <c r="C36" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="115">
+      <c r="D36" s="104">
         <v>-6.2788000000000004</v>
       </c>
-      <c r="E36" s="115">
+      <c r="E36" s="104">
         <v>-2.0394000000000001</v>
       </c>
-      <c r="F36" s="115">
+      <c r="F36" s="104">
         <v>-2.8570000000000002</v>
       </c>
-      <c r="G36" s="115">
+      <c r="G36" s="104">
         <v>-5.5975999999999999</v>
       </c>
-      <c r="H36" s="115">
+      <c r="H36" s="104">
         <v>-9.2127999999999997</v>
       </c>
-      <c r="I36" s="115">
+      <c r="I36" s="104">
         <v>-0.1094</v>
       </c>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="113" t="s">
+      <c r="C37" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="115">
+      <c r="D37" s="104">
         <v>-0.3221</v>
       </c>
-      <c r="E37" s="115">
+      <c r="E37" s="104">
         <v>-4.9515000000000002</v>
       </c>
-      <c r="F37" s="115">
+      <c r="F37" s="104">
         <v>0.15970000000000001</v>
       </c>
-      <c r="G37" s="115">
+      <c r="G37" s="104">
         <v>0.85029999999999994</v>
       </c>
-      <c r="H37" s="115">
+      <c r="H37" s="104">
         <v>-0.77049999999999996</v>
       </c>
-      <c r="I37" s="115">
+      <c r="I37" s="104">
         <v>-8.6599000000000004</v>
       </c>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
     </row>
@@ -5966,145 +6126,145 @@
       <c r="B38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="110" t="s">
+      <c r="C38" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="115">
+      <c r="D38" s="104">
         <v>2.7490000000000001</v>
       </c>
-      <c r="E38" s="115">
+      <c r="E38" s="104">
         <v>-10.973699999999999</v>
       </c>
-      <c r="F38" s="115">
+      <c r="F38" s="104">
         <v>3.2614000000000001</v>
       </c>
-      <c r="G38" s="115">
+      <c r="G38" s="104">
         <v>-33.462699999999998</v>
       </c>
-      <c r="H38" s="115">
+      <c r="H38" s="104">
         <v>2.5554999999999999</v>
       </c>
-      <c r="I38" s="115">
+      <c r="I38" s="104">
         <v>-0.76200000000000001</v>
       </c>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="115">
+      <c r="D39" s="104">
         <v>-3.6669999999999998</v>
       </c>
-      <c r="E39" s="115">
+      <c r="E39" s="104">
         <v>-20.323899999999998</v>
       </c>
-      <c r="F39" s="115">
+      <c r="F39" s="104">
         <v>-8.5485000000000007</v>
       </c>
-      <c r="G39" s="115">
+      <c r="G39" s="104">
         <v>10.7592</v>
       </c>
-      <c r="H39" s="115">
+      <c r="H39" s="104">
         <v>-2.2002999999999999</v>
       </c>
-      <c r="I39" s="115">
+      <c r="I39" s="104">
         <v>-21.9057</v>
       </c>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="115">
+      <c r="D40" s="104">
         <v>4.7077999999999998</v>
       </c>
-      <c r="E40" s="115">
+      <c r="E40" s="104">
         <v>-9.8512000000000004</v>
       </c>
-      <c r="F40" s="115">
+      <c r="F40" s="104">
         <v>-2.34511</v>
       </c>
-      <c r="G40" s="115">
+      <c r="G40" s="104">
         <v>1.3381000000000001</v>
       </c>
-      <c r="H40" s="115">
+      <c r="H40" s="104">
         <v>1.2575000000000001</v>
       </c>
-      <c r="I40" s="115">
+      <c r="I40" s="104">
         <v>-2.1</v>
       </c>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="115">
+      <c r="D41" s="104">
         <v>-4.4467999999999996</v>
       </c>
-      <c r="E41" s="115">
+      <c r="E41" s="104">
         <v>1.0381</v>
       </c>
-      <c r="F41" s="115">
+      <c r="F41" s="104">
         <v>3.9636</v>
       </c>
-      <c r="G41" s="115">
+      <c r="G41" s="104">
         <v>1.4813000000000001</v>
       </c>
-      <c r="H41" s="115">
+      <c r="H41" s="104">
         <v>-3.4883999999999999</v>
       </c>
-      <c r="I41" s="115">
+      <c r="I41" s="104">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="115">
+      <c r="D42" s="104">
         <v>27.683599999999998</v>
       </c>
-      <c r="E42" s="115">
+      <c r="E42" s="104">
         <v>-19.989100000000001</v>
       </c>
-      <c r="F42" s="115">
+      <c r="F42" s="104">
         <v>3.4112</v>
       </c>
-      <c r="G42" s="115">
+      <c r="G42" s="104">
         <v>7.9172000000000002</v>
       </c>
-      <c r="H42" s="115">
+      <c r="H42" s="104">
         <v>8.2979000000000003</v>
       </c>
-      <c r="I42" s="115">
+      <c r="I42" s="104">
         <v>4.5457999999999998</v>
       </c>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
     </row>
@@ -6116,26 +6276,26 @@
       <c r="C43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="115">
+      <c r="D43" s="104">
         <v>3.5728</v>
       </c>
-      <c r="E43" s="115">
+      <c r="E43" s="104">
         <v>-3.3755999999999999</v>
       </c>
-      <c r="F43" s="115">
+      <c r="F43" s="104">
         <v>6.7826000000000004</v>
       </c>
-      <c r="G43" s="115">
+      <c r="G43" s="104">
         <v>6.9161999999999999</v>
       </c>
-      <c r="H43" s="125" t="s">
+      <c r="H43" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="125" t="s">
+      <c r="I43" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
     </row>
@@ -6145,26 +6305,26 @@
       <c r="C44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="115">
+      <c r="D44" s="104">
         <v>-9.3596000000000004</v>
       </c>
-      <c r="E44" s="115">
+      <c r="E44" s="104">
         <v>-2.0706000000000002</v>
       </c>
-      <c r="F44" s="115">
+      <c r="F44" s="104">
         <v>-11.82</v>
       </c>
-      <c r="G44" s="115">
+      <c r="G44" s="104">
         <v>0.9214</v>
       </c>
-      <c r="H44" s="125" t="s">
+      <c r="H44" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="125" t="s">
+      <c r="I44" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
     </row>
@@ -6174,26 +6334,26 @@
       <c r="C45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="115">
+      <c r="D45" s="104">
         <v>0.18770000000000001</v>
       </c>
-      <c r="E45" s="115">
+      <c r="E45" s="104">
         <v>1.3994</v>
       </c>
-      <c r="F45" s="125" t="s">
+      <c r="F45" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="125" t="s">
+      <c r="G45" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="125">
+      <c r="H45" s="114">
         <v>0.19617000000000001</v>
       </c>
-      <c r="I45" s="125">
+      <c r="I45" s="114">
         <v>-5.3329000000000004</v>
       </c>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
@@ -6203,26 +6363,26 @@
       <c r="C46" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="115">
+      <c r="D46" s="104">
         <v>0.26819999999999999</v>
       </c>
-      <c r="E46" s="115">
+      <c r="E46" s="104">
         <v>-8.9641000000000002</v>
       </c>
-      <c r="F46" s="115">
+      <c r="F46" s="104">
         <v>-0.35499999999999998</v>
       </c>
-      <c r="G46" s="115">
+      <c r="G46" s="104">
         <v>-19.7408</v>
       </c>
-      <c r="H46" s="123">
+      <c r="H46" s="112">
         <v>0.22919999999999999</v>
       </c>
-      <c r="I46" s="123">
+      <c r="I46" s="112">
         <v>-3.3761000000000001</v>
       </c>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
@@ -6232,26 +6392,26 @@
       <c r="C47" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="115">
+      <c r="D47" s="104">
         <v>7.5765000000000002</v>
       </c>
-      <c r="E47" s="115">
+      <c r="E47" s="104">
         <v>-21.464400000000001</v>
       </c>
-      <c r="F47" s="115">
+      <c r="F47" s="104">
         <v>1.8274999999999999</v>
       </c>
-      <c r="G47" s="115">
+      <c r="G47" s="104">
         <v>-7.3367000000000004</v>
       </c>
-      <c r="H47" s="123">
+      <c r="H47" s="112">
         <v>7.9599000000000002</v>
       </c>
-      <c r="I47" s="123">
+      <c r="I47" s="112">
         <v>-8.3436000000000003</v>
       </c>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
     </row>
@@ -6261,26 +6421,26 @@
       <c r="C48" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="115">
+      <c r="D48" s="104">
         <v>-21.848400000000002</v>
       </c>
-      <c r="E48" s="115">
+      <c r="E48" s="104">
         <v>10.7935</v>
       </c>
-      <c r="F48" s="115">
+      <c r="F48" s="104">
         <v>-2.7900999999999998</v>
       </c>
-      <c r="G48" s="115">
+      <c r="G48" s="104">
         <v>-17.253799999999998</v>
       </c>
-      <c r="H48" s="123">
+      <c r="H48" s="112">
         <v>-11.366400000000001</v>
       </c>
-      <c r="I48" s="123">
+      <c r="I48" s="112">
         <v>-1.2101999999999999</v>
       </c>
-      <c r="J48" s="115"/>
-      <c r="K48" s="115"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
     </row>
@@ -6290,26 +6450,26 @@
       <c r="C49" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="115">
+      <c r="D49" s="104">
         <v>0.69269999999999998</v>
       </c>
-      <c r="E49" s="115">
+      <c r="E49" s="104">
         <v>3.9018000000000002</v>
       </c>
-      <c r="F49" s="115">
+      <c r="F49" s="104">
         <v>0.154</v>
       </c>
-      <c r="G49" s="115">
+      <c r="G49" s="104">
         <v>-3.1366999999999998</v>
       </c>
-      <c r="H49" s="123">
+      <c r="H49" s="112">
         <v>0.72719999999999996</v>
       </c>
-      <c r="I49" s="123">
+      <c r="I49" s="112">
         <v>-32.196300000000001</v>
       </c>
-      <c r="J49" s="115"/>
-      <c r="K49" s="115"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
     </row>
@@ -6317,32 +6477,32 @@
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="112">
+      <c r="D50" s="101">
         <f t="shared" ref="D50:E50" si="1">SUM(D28:D49)</f>
         <v>-8.0073000000000008</v>
       </c>
-      <c r="E50" s="112">
+      <c r="E50" s="101">
         <f t="shared" si="1"/>
         <v>-129.52250000000001</v>
       </c>
-      <c r="F50" s="112">
+      <c r="F50" s="101">
         <f>SUM(F28:F49)</f>
         <v>8.1311900000000001</v>
       </c>
-      <c r="G50" s="112">
+      <c r="G50" s="101">
         <f>SUM(G28:G49)</f>
         <v>-96.587599999999981</v>
       </c>
-      <c r="H50" s="112">
+      <c r="H50" s="101">
         <f>SUM(H28:H49)</f>
         <v>-13.246429999999997</v>
       </c>
-      <c r="I50" s="112">
+      <c r="I50" s="101">
         <f>SUM(I28:I49)</f>
         <v>-92.633800000000008</v>
       </c>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
     </row>
@@ -6350,32 +6510,32 @@
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="114">
+      <c r="D51" s="103">
         <f>D50/$E$53</f>
         <v>-0.10927111649690499</v>
       </c>
-      <c r="E51" s="114">
+      <c r="E51" s="103">
         <f>E50/$E$53</f>
         <v>-1.7675206607059029</v>
       </c>
-      <c r="F51" s="114">
+      <c r="F51" s="103">
         <f>F50/$G$53</f>
         <v>7.2244114898776635E-2</v>
       </c>
-      <c r="G51" s="114">
+      <c r="G51" s="103">
         <f>G50/$G$53</f>
         <v>-0.85816291000420308</v>
       </c>
-      <c r="H51" s="114">
+      <c r="H51" s="103">
         <f>H50/I53</f>
         <v>0.1536724683120278</v>
       </c>
-      <c r="I51" s="114">
+      <c r="I51" s="103">
         <f>I50/I53</f>
         <v>1.0746491466095185</v>
       </c>
-      <c r="J51" s="115"/>
-      <c r="K51" s="115"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
     </row>
@@ -6383,32 +6543,32 @@
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="112">
+      <c r="D52" s="101">
         <f t="shared" ref="D52" si="2">D26+D50</f>
         <v>-12.594600000000003</v>
       </c>
-      <c r="E52" s="112">
+      <c r="E52" s="101">
         <f>E26+E50</f>
         <v>-111.4286</v>
       </c>
-      <c r="F52" s="112">
+      <c r="F52" s="101">
         <f>F26+F50</f>
         <v>47.433890000000005</v>
       </c>
-      <c r="G52" s="112">
+      <c r="G52" s="101">
         <f>G26+G50</f>
         <v>-155.20849999999999</v>
       </c>
-      <c r="H52" s="112">
+      <c r="H52" s="101">
         <f>H26+H50</f>
         <v>-2.562109999999997</v>
       </c>
-      <c r="I52" s="128">
+      <c r="I52" s="117">
         <f>I26+I50</f>
         <v>-172.1917</v>
       </c>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
     </row>
@@ -6416,23 +6576,23 @@
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="127">
+      <c r="D53" s="115"/>
+      <c r="E53" s="116">
         <f>D52+E52+E6</f>
         <v>73.279200000000003</v>
       </c>
-      <c r="F53" s="126"/>
-      <c r="G53" s="127">
+      <c r="F53" s="115"/>
+      <c r="G53" s="116">
         <f>F52+G52+G6</f>
         <v>112.55159000000002</v>
       </c>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127">
+      <c r="H53" s="116"/>
+      <c r="I53" s="116">
         <f>H52+I52+I6</f>
         <v>-86.19910999999999</v>
       </c>
-      <c r="J53" s="115"/>
-      <c r="K53" s="115"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
     </row>
@@ -6440,14 +6600,14 @@
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="115"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
     </row>
@@ -6455,14 +6615,14 @@
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="115"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
     </row>
@@ -6470,14 +6630,14 @@
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="115"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
     </row>
@@ -6756,38 +6916,38 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="122"/>
+      <c r="F4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99" t="s">
+      <c r="G4" s="123"/>
+      <c r="H4" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101" t="s">
+      <c r="K4" s="125"/>
+      <c r="L4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="102" t="s">
+      <c r="M4" s="126"/>
+      <c r="N4" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="95" t="s">
+      <c r="O4" s="127"/>
+      <c r="P4" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="96" t="s">
+      <c r="Q4" s="120"/>
+      <c r="R4" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="96"/>
+      <c r="S4" s="121"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
@@ -10024,38 +10184,38 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="122"/>
+      <c r="F4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99" t="s">
+      <c r="G4" s="123"/>
+      <c r="H4" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101" t="s">
+      <c r="K4" s="125"/>
+      <c r="L4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="102" t="s">
+      <c r="M4" s="126"/>
+      <c r="N4" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="95" t="s">
+      <c r="O4" s="127"/>
+      <c r="P4" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="96" t="s">
+      <c r="Q4" s="120"/>
+      <c r="R4" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="96"/>
+      <c r="S4" s="121"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
@@ -13212,38 +13372,38 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="128"/>
+      <c r="F4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99" t="s">
+      <c r="G4" s="123"/>
+      <c r="H4" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101" t="s">
+      <c r="K4" s="125"/>
+      <c r="L4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="102" t="s">
+      <c r="M4" s="126"/>
+      <c r="N4" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="95" t="s">
+      <c r="O4" s="127"/>
+      <c r="P4" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="96" t="s">
+      <c r="Q4" s="120"/>
+      <c r="R4" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="96"/>
+      <c r="S4" s="121"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -16009,10 +16169,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="104"/>
+      <c r="E4" s="129"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -16350,4 +16510,651 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="130"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="95"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="61"/>
+      <c r="C6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98">
+        <v>-88.554699999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3.3683000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-0.73329999999999995</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-9.4329000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-2.4685999999999999</v>
+      </c>
+      <c r="E9" s="10">
+        <v>18.736000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2.7618</v>
+      </c>
+      <c r="E10" s="10">
+        <v>11.5291</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.4415</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-19.666799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-3.2949999999999999</v>
+      </c>
+      <c r="E12" s="10">
+        <v>-2.5602999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1.7009000000000001</v>
+      </c>
+      <c r="E13" s="10">
+        <v>-8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10">
+        <v>-4.4386999999999999</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3.3083</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10">
+        <v>8.3337000000000003</v>
+      </c>
+      <c r="E15" s="10">
+        <v>43.475900000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.5484</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="E17" s="10">
+        <v>9.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.4269</v>
+      </c>
+      <c r="E18" s="10">
+        <v>23.093</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10">
+        <v>-2.1399999999999999E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>-65.826800000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.1570999999999998</v>
+      </c>
+      <c r="E20" s="10">
+        <v>-3.3877999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E21" s="10">
+        <v>15.1379</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-7.5785</v>
+      </c>
+      <c r="E22" s="10">
+        <v>46.133600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.369</v>
+      </c>
+      <c r="E23" s="10">
+        <v>-0.91020000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="10">
+        <v>-6.1387999999999998</v>
+      </c>
+      <c r="E24" s="10">
+        <v>29.492899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10">
+        <v>-13.912699999999999</v>
+      </c>
+      <c r="E25" s="10">
+        <v>6.2176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="101">
+        <f>SUM(D7:D25)</f>
+        <v>-18.0809</v>
+      </c>
+      <c r="E26" s="101">
+        <f>SUM(E7:E25)</f>
+        <v>90.356500000000011</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="103">
+        <f>D26/E53</f>
+        <v>-0.22266652052851113</v>
+      </c>
+      <c r="E27" s="103">
+        <f>E26/E53</f>
+        <v>1.1127414820133079</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="104">
+        <v>-1.635</v>
+      </c>
+      <c r="E28" s="104">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="104">
+        <v>-5.3600000000000002E-2</v>
+      </c>
+      <c r="E29" s="104">
+        <v>-1.3540000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="104">
+        <v>-11.4368</v>
+      </c>
+      <c r="E30" s="104">
+        <v>1.8702000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="104">
+        <v>4.4884000000000004</v>
+      </c>
+      <c r="E31" s="104">
+        <v>7.1219000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="104">
+        <v>8.6256000000000004</v>
+      </c>
+      <c r="E32" s="104">
+        <v>0.62270000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="104">
+        <v>2.0466000000000002</v>
+      </c>
+      <c r="E33" s="104">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="104">
+        <v>-6.7778</v>
+      </c>
+      <c r="E34" s="104">
+        <v>6.9447000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="104">
+        <v>2.4811999999999999</v>
+      </c>
+      <c r="E35" s="104">
+        <v>-0.91969999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="104">
+        <v>7.1148999999999996</v>
+      </c>
+      <c r="E36" s="104">
+        <v>2.2071999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="104">
+        <v>5.1708999999999996</v>
+      </c>
+      <c r="E37" s="104">
+        <v>4.2595000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="104">
+        <v>-2.4418000000000002</v>
+      </c>
+      <c r="E38" s="104">
+        <v>0.64829999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="104">
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="E39" s="104">
+        <v>23.701499999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="104">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="E40" s="104">
+        <v>0.75560000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="104">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="E41" s="104">
+        <v>2.9116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="104">
+        <v>-0.85650000000000004</v>
+      </c>
+      <c r="E42" s="104">
+        <v>-11.987299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="114">
+        <v>1.9492</v>
+      </c>
+      <c r="E45" s="114">
+        <v>3.1875</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="112">
+        <v>-0.13109999999999999</v>
+      </c>
+      <c r="E46" s="112">
+        <v>3.278</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="112">
+        <v>-3.1063000000000001</v>
+      </c>
+      <c r="E47" s="112">
+        <v>3.4899</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="112">
+        <v>-7.8404999999999996</v>
+      </c>
+      <c r="E48" s="112">
+        <v>20.417200000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="112">
+        <v>24.672499999999999</v>
+      </c>
+      <c r="E49" s="112">
+        <v>6.7965</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="101">
+        <f>SUM(D28:D49)</f>
+        <v>23.293099999999999</v>
+      </c>
+      <c r="E50" s="101">
+        <f>SUM(E28:E49)</f>
+        <v>74.187699999999992</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="103">
+        <f>D50/E53</f>
+        <v>0.28685483185696853</v>
+      </c>
+      <c r="E51" s="103">
+        <f>E50/E53</f>
+        <v>0.91362249805114926</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="101">
+        <f>D26+D50</f>
+        <v>5.2121999999999993</v>
+      </c>
+      <c r="E52" s="117">
+        <f>E26+E50</f>
+        <v>164.54419999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116">
+        <f>D52+E52+E6</f>
+        <v>81.201699999999988</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>